--- a/artifacts/recipes/new_data/allrecipescom/breakfast/breakfast_crepes.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/breakfast/breakfast_crepes.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -103,12 +476,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ingredients</t>
+          <t>recipe_ingredients</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -127,100 +500,68 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699653556-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Blintz</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/17853/breakfast-and-brunch/crepes/blintz/</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Blintz</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699653563-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Blintz</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/17853/breakfast-and-brunch/crepes/blintz/</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BZ7RiVeiXd5YZhr9it1NxAj58Wc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1621x0:1623x2):format(webp)/6400939-cc4f57aaa6884606a19ab1d1b37703ff.jpg"
@@ -233,69 +574,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257970/chocolate-raspberry-blintzes/</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chocolate Raspberry Blintzes</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (8 ounce) package cream cheese, softened\n\n\n⅓ (13 ounce) jar chocolate-hazelnut spread (such as Nutella®)\n\n\n½ (8 ounce) package mixed berry cream cheese, softened\n\n\n1 tablespoon milk\n\n\n2 teaspoons vanilla extract\n\n\n½ cup butter, melted\n\n\n1 cup white sugar\n\n\n2 tablespoons ground cinnamon\n\n\n1 loaf sliced white bread, crusts removed"}]</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package cream cheese, softened\n\n\n⅓ (13 ounce) jar chocolate-hazelnut spread (such as Nutella®)\n\n\n½ (8 ounce) package mixed berry cream cheese, softened\n\n\n1 tablespoon milk\n\n\n2 teaspoons vanilla extract\n\n\n½ cup butter, melted\n\n\n1 cup white sugar\n\n\n2 tablespoons ground cinnamon\n\n\n1 loaf sliced white bread, crusts removed'}]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Mix cream cheese, chocolate-hazelnut spread, berry cream cheese, milk, and vanilla extract together in a bowl."},{"recipe_directions":"Pour melted butter into a shallow bowl."},{"recipe_directions":"Combine sugar and cinnamon in a separate shallow bowl."},{"recipe_directions":"Flatten bread slices out on a work surface. Spread cream cheese mixture over each slice. Roll up each slice. Dip rolls in melted butter; coat with cinnamon sugar. Arrange seam-side down in a baking dish."},{"recipe_directions":"Bake in the preheated oven until lightly golden, 15 to 20 minutes."}]</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"573\nCalories\n\n\n31g \nFat\n\n\n68g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699653571-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Blintz</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/17853/breakfast-and-brunch/crepes/blintz/</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KS2rDmuT7JYTCzXeEhR95WQYSaA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8280879-90d0338d1a214378b7ee2d7fbbfa6dd4.jpg"
@@ -308,69 +645,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/37341/blenty-of-blintzes/</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Blenty of Blintzes</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n50 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ¼ cups all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ cup butter, softened\n\n\n3 tablespoons white sugar\n\n\n2  eggs\n\n\n¾ cup milk\n\n\n1 (16 ounce) container cottage cheese, creamed\n\n\n2 tablespoons butter, softened\n\n\n1  egg\n\n\n1 tablespoon sour cream\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¼ cups all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ cup butter, softened\n\n\n3 tablespoons white sugar\n\n\n2  eggs\n\n\n¾ cup milk\n\n\n1 (16 ounce) container cottage cheese, creamed\n\n\n2 tablespoons butter, softened\n\n\n1  egg\n\n\n1 tablespoon sour cream\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Lightly grease a 9x9 inch baking dish."},{"recipe_directions":"In a medium bowl, mix flour, baking powder, butter and sugar. Stir in eggs and milk. In a separate medium bowl, mix cottage cheese, butter, egg, sour cream and salt."},{"recipe_directions":"Place 1/2 the flour mixture in the baking dish. Cover with the cottage cheese mixture, and top with remaining flour mixture."},{"recipe_directions":"Bake 50 minutes in the preheated oven, until puffed and golden brown. Allow to cool slightly, and cut into squares to serve."}]</t>
         </is>
       </c>
-      <c r="L4" s="1" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M4" s="1" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"422\nCalories\n\n\n26g \nFat\n\n\n30g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699653582-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Blintz</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/17853/breakfast-and-brunch/crepes/blintz/</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uX2dR8sgM7eiV4RFi0xp63VsAto=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1631x0:1633x2):format(webp)/5286799-412a0ed034de44e780709cd7481cb33e.jpg"
@@ -383,69 +716,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/212780/cheese-blintzes-ii/</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cheese Blintzes II</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n4 \n\n\nYield:\n8 blintzes"}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup milk\n\n\n3  eggs\n\n\n½ teaspoon salt\n\n\n¾ cup all-purpose flour\n\n\n2 cups cottage cheese\n\n\n1  egg yolk\n\n\n1 teaspoon melted butter\n\n\n2 teaspoons white sugar\n\n\n1 teaspoon lemon juice\n\n\n½ teaspoon vanilla extract\n\n\n2 tablespoons butter, or as needed\n\n\n2 tablespoons cinnamon sugar, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup milk\n\n\n3  eggs\n\n\n½ teaspoon salt\n\n\n¾ cup all-purpose flour\n\n\n2 cups cottage cheese\n\n\n1  egg yolk\n\n\n1 teaspoon melted butter\n\n\n2 teaspoons white sugar\n\n\n1 teaspoon lemon juice\n\n\n½ teaspoon vanilla extract\n\n\n2 tablespoons butter, or as needed\n\n\n2 tablespoons cinnamon sugar, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the milk, whole eggs, salt, and flour into a blender. Blend until smooth. Refrigerate at least 20 minutes. Meanwhile, make the filling by beating together the cottage cheese, egg yolk, melted butter, sugar, lemon juice, and vanilla extract in a bowl with an electric mixer until smooth."},{"recipe_directions":"Preheat an oven to 425 degrees F (220 degrees C). Lightly grease a baking sheet."},{"recipe_directions":"Melt some of the 2 tablespoons of butter in a skillet over medium-high heat. Pour in about 2 tablespoons of the batter and tilt the pan to completely coat with the batter. Cook until golden on the bottom, and no longer wet on the top, about 2 minutes per crepe. Repeat with remaining batter."},{"recipe_directions":"Place 1 to 2 tablespoons of the filling near one edge of a crepe. Fold this side up towards the center, then fold the sides in. Fold the top over the filling, and place seam-side-down onto the prepared baking sheet. Repeat with the remaining crepes and filling."},{"recipe_directions":"Bake in the preheated oven 10 minutes, then sprinkle with cinnamon sugar, and continue baking until lightly golden, about 5 minutes more."}]</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"392\nCalories\n\n\n18g \nFat\n\n\n33g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699653591-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Blintz</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/17853/breakfast-and-brunch/crepes/blintz/</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HDKUatwXSg2PbHop-yfvNw0huAM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/635288-9b69c51b431c4531b15172e66d2db574.jpg"
@@ -458,69 +787,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/212779/baby-blintz-stacks/</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baby Blintz Stacks</t>
         </is>
       </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (24 ounce) carton cottage cheese\n\n\n2  fresh peaches - peeled, pitted and chopped\n\n\n3 tablespoons white sugar\n\n\n½ teaspoon ground nutmeg\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon almond extract\n\n\n½ cup sour cream\n\n\n2 tablespoons brown sugar\n\n\n1 ½ cups all-purpose flour\n\n\n1 tablespoon white sugar\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground nutmeg\n\n\n2 cups milk\n\n\n2  eggs\n\n\n2 tablespoons melted butter\n\n\n½ teaspoon vanilla extract\n\n\n2  fresh peaches, pitted and sliced"}]</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (24 ounce) carton cottage cheese\n\n\n2  fresh peaches - peeled, pitted and chopped\n\n\n3 tablespoons white sugar\n\n\n½ teaspoon ground nutmeg\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon almond extract\n\n\n½ cup sour cream\n\n\n2 tablespoons brown sugar\n\n\n1 ½ cups all-purpose flour\n\n\n1 tablespoon white sugar\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground nutmeg\n\n\n2 cups milk\n\n\n2  eggs\n\n\n2 tablespoons melted butter\n\n\n½ teaspoon vanilla extract\n\n\n2  fresh peaches, pitted and sliced'}]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir together the cottage cheese, chopped peaches, 3 tablespoons white sugar, 1/4 teaspoon salt, and the almond extract in a bowl until evenly combined. Stir together the sour cream and brown sugar in a separate bowl. Refrigerate both fillings until ready to use."},{"recipe_directions":"Whisk together the flour, 1 tablespoon of white sugar, the baking powder, 1/2 teaspoon salt, and the nutmeg in a bowl. Beat the eggs, milk, butter, and vanilla extract in a separate bowl until smooth. Stir in the flour mixture until no lumps remain."},{"recipe_directions":"Heat a lightly oiled griddle over medium-high heat. Drop batter by large spoonfuls onto the griddle to form silver dollar-sized blintzes. Cook until bubbles form and the edges are dry, about 2 minutes. Flip, and cook until browned on the other side. Repeat with remaining batter."},{"recipe_directions":"To assemble, spread 1 tablespoon of peach filling on top of each blintz. Stack together 5 blintzes to make a serving portion, and spoon the sweetened sour cream overtop. Garnish with peach slices."}]</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M6" s="1" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"264\nCalories\n\n\n10g \nFat\n\n\n29g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699653597-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Blintz</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/17853/breakfast-and-brunch/crepes/blintz/</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AFPQkosoe8bb4sKwULrD-m2TvWc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1015x0:1017x2):format(webp)/6814227-c5212658d6424b5f9db2d07817cdebfc.jpg"
@@ -533,69 +858,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260548/cheese-and-lemon-blintzes/</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cheese and Lemon Blintzes</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n4 mins\n\n\nTotal Time:\n34 mins\n\n\nServings:\n12 \n\n\nYield:\n12 blintzes"}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup all-purpose flour\n\n\n3  eggs\n\n\n½ teaspoon salt\n\n\n  cooking spray"},{"ingredients":"2 (8 ounce) packages cream cheese, softened\n\n\n½ cup raisins (Optional)\n\n\n3 tablespoons white sugar, or to taste\n\n\n2  egg yolks\n\n\n1 tablespoon lemon zest\n\n\n½ teaspoon vanilla extract\n\n\n¼ teaspoon ground cinnamon\n\n\n1 tablespoon butter, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup all-purpose flour\n\n\n3  eggs\n\n\n½ teaspoon salt\n\n\n  cooking spray'}, {'recipe_ingredients': '2 (8 ounce) packages cream cheese, softened\n\n\n½ cup raisins (Optional)\n\n\n3 tablespoons white sugar, or to taste\n\n\n2  egg yolks\n\n\n1 tablespoon lemon zest\n\n\n½ teaspoon vanilla extract\n\n\n¼ teaspoon ground cinnamon\n\n\n1 tablespoon butter, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix flour, eggs, and salt together in a bowl until smooth and creamy."},{"recipe_directions":"Lightly coat a small skillet with cooking spray. Pour 2 to 3 tablespoons of batter into the skillet. Swirl around until even and then place skillet over medium heat. Cook until sides begin to curl away, about 2 minutes. Turn and cook other side until lightly browned, about 1 minute more. Put onto a plate."},{"recipe_directions":"Mix cream cheese, raisins, sugar, egg yolks, lemon peel, vanilla extract, and cinnamon together in a bowl to make the filling. Place 2 to 3 teaspoons of filling on each blintz and roll up like a small burrito."},{"recipe_directions":"Melt 1 tablespoon butter in a skillet over medium heat. Cook the filled blintzes, turning carefully, until lightly browned, about 30 seconds each."}]</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M7" s="1" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"237\nCalories\n\n\n16g \nFat\n\n\n18g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699653601-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Blintz</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/17853/breakfast-and-brunch/crepes/blintz/</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cTsSbhRG0aeCJ71E6or1aVsG2kk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1444887-13e8a4b782234a73a0044bfa7c43d385.jpg"
@@ -608,69 +929,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/199579/orange-blintzes/</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Orange Blintzes</t>
         </is>
       </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n4 \n\n\nYield:\n12 blintzes"}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 tablespoons white sugar\n\n\n1 teaspoon grated orange zest\n\n\n¾ teaspoon salt\n\n\n1 cup all-purpose flour\n\n\n¼ cup milk\n\n\n¼ cup vanilla yogurt\n\n\n2 tablespoons extra-virgin olive oil\n\n\n4  eggs\n\n\n½ cup orange juice\n\n\n1  egg\n\n\n3 tablespoons white sugar\n\n\n2 tablespoons unsalted butter, melted\n\n\n1 (16 ounce) package small curd cottage cheese\n\n\n5 tablespoons dry bread crumbs\n\n\n1 tablespoon grated orange zest\n\n\n2 tablespoons unsalted butter"}]</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons white sugar\n\n\n1 teaspoon grated orange zest\n\n\n¾ teaspoon salt\n\n\n1 cup all-purpose flour\n\n\n¼ cup milk\n\n\n¼ cup vanilla yogurt\n\n\n2 tablespoons extra-virgin olive oil\n\n\n4  eggs\n\n\n½ cup orange juice\n\n\n1  egg\n\n\n3 tablespoons white sugar\n\n\n2 tablespoons unsalted butter, melted\n\n\n1 (16 ounce) package small curd cottage cheese\n\n\n5 tablespoons dry bread crumbs\n\n\n1 tablespoon grated orange zest\n\n\n2 tablespoons unsalted butter'}]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix 2 tablespoons of sugar, 1 teaspoon of orange zest, salt, and flour in a small bowl. Combine milk and yogurt in a separate bowl. Stir in olive oil and mix until smooth. Beat 4 eggs in a large bowl, then add orange juice. Stir in the yogurt mixture followed by the flour mixture. Beat until smooth. Allow batter to rest at room temperature for 1 hour."},{"recipe_directions":"Beat 1 egg with 3 tablespoons of sugar, then add butter and cottage cheese, mixing until smooth. Stir in the bread crumbs and 1 tablespoon of orange zest. Refrigerate until the batter is ready."},{"recipe_directions":"Lightly butter a 6 inch skillet, and heat over medium heat. For each crepe, pour 1/4 cup of the batter into the skillet, and immediately rotate the skillet until the batter evenly coats the bottom in a thin layer. Cook until the top of the crepe is no longer wet and the bottom has turned light brown. Run a spatula around the edge of the skillet to loosen; flip the crepe, and cook until the other side has turned light brown. Stack the crepes in a clean kitchen towel, placing waxed paper between each."},{"recipe_directions":"Place 2 to 3 tablespoons of the filling onto the golden side of the crepe. Roll the crepe up and repeat until all the blintzes are made. Heat 2 tablespoons of butter in a large skillet and fry 4 to 5 blintzes at a time until golden brown, about 2 minutes on each side."}]</t>
         </is>
       </c>
-      <c r="L8" s="1" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M8" s="1" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"611\nCalories\n\n\n31g \nFat\n\n\n56g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699653606-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Blintz</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/17853/breakfast-and-brunch/crepes/blintz/</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2MmPJUTVODEsNYYNWpvYI4YR-xs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1187x0:1189x2):format(webp)/6979316-96e54923a7604e978350574a98c2f155.jpg"
@@ -683,69 +1000,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/212819/marylyns-cheese-blintzes/</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Marylyn's Cheese Blintzes</t>
         </is>
       </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n10 \n\n\nYield:\n20 blintzes"}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup water\n\n\n¾ cup milk\n\n\n3  eggs\n\n\n5 tablespoons melted butter\n\n\n½ teaspoon salt\n\n\n1 teaspoon vanilla extract\n\n\n1 ½ cups all-purpose flour\n\n\n1 (16 ounce) package cottage cheese\n\n\n1 (8 ounce) package farmers cheese\n\n\n¼ cup sour cream\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 pinch salt\n\n\n2 tablespoons butter, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n¾ cup milk\n\n\n3  eggs\n\n\n5 tablespoons melted butter\n\n\n½ teaspoon salt\n\n\n1 teaspoon vanilla extract\n\n\n1 ½ cups all-purpose flour\n\n\n1 (16 ounce) package cottage cheese\n\n\n1 (8 ounce) package farmers cheese\n\n\n¼ cup sour cream\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 pinch salt\n\n\n2 tablespoons butter, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the water, milk, eggs, melted butter, 1/2 teaspoon of salt, 1 teaspoon of vanilla extract, and flour in the container of a blender, and blend until the mixture forms a smooth batter, about 1 minute. Pour into a bowl, and refrigerate at least 1 hour."},{"recipe_directions":"Clean the blender container, then add the cottage cheese, farmers cheese, sour cream, sugar, 1 teaspoon of vanilla extract, and 1 pinch of salt. Pulse the filling mixture a few times to combine, then blend until the filling is smooth, about 2 minutes."},{"recipe_directions":"Melt 1 teaspoon of butter in an 8-inch skillet over medium heat until the foam disappears from the skillet. Pour about 2 tablespoons of batter into the heated skillet, and swirl the pan to coat the bottom completely. Cook until the crepe is opaque and set, 1 to 2 minutes, and set aside, uncooked side down, on a plate lined with wax paper. Repeat with the rest of the batter, buttering the pan every few crepes if needed."},{"recipe_directions":"To fill, place a crepe in front of you on a work surface with the cooked side up, and place about 1 1/2 tablespoons of cheese filling about 1 1/2 inches from the top of the crepe. Fold the top edge of the crepe over the filling, and fold the two sides inward to completely enclose the cheese. Roll the crepe over to seal the filling in, making a compact filled roll."},{"recipe_directions":"Melt 1 teaspoon of butter, or as needed, in a skillet over medium-low heat. Pan fry the blintzes on both sides until the filling is hot and brown spots appear on the crepe, 1 to 2 minutes per side."}]</t>
         </is>
       </c>
-      <c r="L9" s="1" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M9" s="1" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"321\nCalories\n\n\n20g \nFat\n\n\n20g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699653614-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Blintz</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/17853/breakfast-and-brunch/crepes/blintz/</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8cq2H9jLXyixL3ddRltB19x3-o0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4561866-5edfd49d342f4b97bbee5b270796b18a.jpg"
@@ -758,69 +1071,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246832/strawberry-blintzes/</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Strawberry Blintzes</t>
         </is>
       </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n1 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 16 mins\n\n\nServings:\n10 \n\n\nYield:\n10 blintzes"}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3  eggs\n\n\n⅔ cup all-purpose flour\n\n\n½ teaspoon salt\n\n\n1 ½ cups milk\n\n\n1 ½ tablespoons butter, melted"},{"ingredients":"1 (8 ounce) container cottage cheese\n\n\n1 (3 ounce) package cream cheese, softened\n\n\n¼ cup white sugar\n\n\n½ teaspoon vanilla extract\n\n\n2 tablespoons butter, or as needed\n\n\n1 (10 ounce) package frozen sweetened strawberries, thawed, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  eggs\n\n\n⅔ cup all-purpose flour\n\n\n½ teaspoon salt\n\n\n1 ½ cups milk\n\n\n1 ½ tablespoons butter, melted'}, {'recipe_ingredients': '1 (8 ounce) container cottage cheese\n\n\n1 (3 ounce) package cream cheese, softened\n\n\n¼ cup white sugar\n\n\n½ teaspoon vanilla extract\n\n\n2 tablespoons butter, or as needed\n\n\n1 (10 ounce) package frozen sweetened strawberries, thawed, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat eggs, flour, and salt together in a large bowl until smooth. Mix in milk and 1 1/2 tablespoon butter gradually. Cover with plastic wrap and let batter rest in the refrigerator, at least 2 hours."},{"recipe_directions":"Combine cottage cheese, cream cheese, sugar, and vanilla extract in a blender; blend until filling is smooth."},{"recipe_directions":"Melt a bit of butter in a large skillet or crepe pan over medium heat. Ladle in a small amount of batter and swirl skillet to spread batter in a thin layer. Cook until set, about 30 seconds. Flip and continue cooking until second side is cooked, about 10 seconds. Transfer to a plate to cool. Repeat with remaining butter and batter."},{"recipe_directions":"Spoon filling onto blintzes and fold. Top with strawberries."}]</t>
         </is>
       </c>
-      <c r="L10" s="1" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M10" s="1" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"201\nCalories\n\n\n10g \nFat\n\n\n20g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699653620-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Blintz</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/17853/breakfast-and-brunch/crepes/blintz/</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XKoPGOy68YhkcYn2L2IaAzppvnM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4564399-b911d5509bf845159e1567688f348fe5.jpg"
@@ -831,136 +1140,104 @@
 Traditional Cheese Blintzes</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260547/traditional-cheese-blintzes/</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Traditional Cheese Blintzes</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n19 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n59 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3  eggs\n\n\n1 cup milk\n\n\n2 tablespoons vegetable oil\n\n\n1 ½ teaspoons salt, divided\n\n\n¾ cup all-purpose flour, sifted\n\n\n1 (16 ounce) package dry small curd cottage cheese\n\n\n3 ½ tablespoons white sugar\n\n\n3 tablespoons sour cream\n\n\n1  egg yolk\n\n\n¼ teaspoon ground cinnamon\n\n\n¼ cup butter, or as needed, divided"}]</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  eggs\n\n\n1 cup milk\n\n\n2 tablespoons vegetable oil\n\n\n1 ½ teaspoons salt, divided\n\n\n¾ cup all-purpose flour, sifted\n\n\n1 (16 ounce) package dry small curd cottage cheese\n\n\n3 ½ tablespoons white sugar\n\n\n3 tablespoons sour cream\n\n\n1  egg yolk\n\n\n¼ teaspoon ground cinnamon\n\n\n¼ cup butter, or as needed, divided'}]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat eggs in a bowl. Add milk, oil, and 1/2 teaspoon salt. Beat in flour using an electric mixer until well blended. Let batter stand for 15 to 30 minutes."},{"recipe_directions":"Mix the remaining 1 teaspoon salt, cottage cheese, sugar, sour cream, egg yolk, and cinnamon together in a bowl to make the filling."},{"recipe_directions":"Melt butter in a 6- to 7-inch skillet. Spoon a portion of the batter onto the skillet; cook until lightly browned on the bottom, about 3 minutes. Turn out onto a tea towel. Repeat with the remaining batter, thinning with small amounts of water if necessary and greasing the pan after every 2 to 3 blintzes."},{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C). Grease a baking sheet."},{"recipe_directions":"Melt the remaining butter in the skillet over low heat, about 1 minute."},{"recipe_directions":"Place a blintz on a clean work surface with the uncooked side up. Add 1 tablespoon filling and roll up, completely covering the filling. Place on the prepared baking sheet. Repeat with the remaining blintzes. Brush filled blintzes with melted butter."},{"recipe_directions":"Bake in the preheated oven until brown, 15 to 20 minutes."}]</t>
         </is>
       </c>
-      <c r="L11" s="1" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M11" s="1" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"253\nCalories\n\n\n14g \nFat\n\n\n17g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699653629-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699653636-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -974,69 +1251,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/286298/easy-chicken-stuffed-crepes/</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Easy Chicken-Stuffed Crepes</t>
         </is>
       </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n10 \n\n\nYield:\n10 crepes"}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ⅓ cups milk\n\n\n1 cup all-purpose flour\n\n\n4 large eggs\n\n\n2 tablespoons oil\n\n\n¼ teaspoon salt"},{"ingredients":"2 (10.5 ounce) cans condensed cream of chicken soup\n\n\n3 ½ cups shredded roasted chicken\n\n\n1 cup shredded Cheddar cheese\n\n\n⅔ cup milk\n\n\n1 (4 ounce) can sliced mushrooms, drained\n\n\n⅓ cup sliced almonds"}]</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ⅓ cups milk\n\n\n1 cup all-purpose flour\n\n\n4 large eggs\n\n\n2 tablespoons oil\n\n\n¼ teaspoon salt'}, {'recipe_ingredients': '2 (10.5 ounce) cans condensed cream of chicken soup\n\n\n3 ½ cups shredded roasted chicken\n\n\n1 cup shredded Cheddar cheese\n\n\n⅔ cup milk\n\n\n1 (4 ounce) can sliced mushrooms, drained\n\n\n⅓ cup sliced almonds'}]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Lightly grease a 9x13-inch baking dish."},{"recipe_directions":"Whisk milk, flour, eggs, 2 tablespoons oil, and salt together in a bowl until well combined."},{"recipe_directions":"Heat a nonstick 10-inch skillet or crepe pan over medium-high heat until hot. Pour about 1/4 to 1/3 cup batter into the hot pan and immediately tilt the pan so the batter covers the bottom. Cook until the edges start to dry and the center is just about set, 1 to 3 minutes. Flip and repeat to brown the other side. Transfer to a sheet of waxed paper and repeat to make remaining crepes. Stack crepes between layers of waxed paper while you make the filling."},{"recipe_directions":"Stir condensed soup, chicken, Cheddar cheese, milk, and mushrooms together in a large bowl until blended. Spoon about 1/3 to 1/2 cup chicken mixture down the side of one crepe. Roll the crepe, tucking in the sides as you roll. Repeat to stuff remaining crepes."},{"recipe_directions":"Place crepes with seams facing down in the prepared baking dish. Pour remaining soup mixture over top and sprinkle with sliced almonds."},{"recipe_directions":"Bake in the preheated oven until hot and bubbly, 20 to 30 minutes."}]</t>
         </is>
       </c>
-      <c r="L13" s="1" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Savory"}]</t>
         </is>
       </c>
-      <c r="M13" s="1" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"316\nCalories\n\n\n16g \nFat\n\n\n18g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699653644-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Uv5uiztxw9yyiKzRrRm41AzS_TQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1040556-e0a8d90b012f453bb781daac66f1c6b1.jpg"
@@ -1049,69 +1322,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/41219/beer-batter-crepes-ii/</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Beer Batter Crepes II</t>
         </is>
       </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n10 \n\n\nYield:\n10 crepes"}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3  eggs, lightly beaten\n\n\n1 cup beer\n\n\n1 cup all-purpose flour\n\n\n½ teaspoon salt\n\n\n2 ½ teaspoons vegetable oil\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  eggs, lightly beaten\n\n\n1 cup beer\n\n\n1 cup all-purpose flour\n\n\n½ teaspoon salt\n\n\n2 ½ teaspoons vegetable oil\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, beat together the eggs and beer. Sift together the flour and salt, and mix in. Beat in oil. Allow to stand for 1 hour. If batter is too thick, stir in a little milk."},{"recipe_directions":"Heat a crepe pan over medium heat, and lightly coat with cooking spray. Pour on 2 tablespoons batter, and quickly spread to the edges of pan. Cook until top appears dry, then turn, and cook for 15 seconds. Set aside on paper towels and repeat cooking method until all batter is used."}]</t>
         </is>
       </c>
-      <c r="L14" s="1" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Savory"}]</t>
         </is>
       </c>
-      <c r="M14" s="1" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"88\nCalories\n\n\n3g \nFat\n\n\n11g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699653657-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lMlmPxJEvZncJlxPF7aMzTMqtrU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/6789133-20aa3b63443d499eab0cd7af07cf3e31.jpg"
@@ -1124,69 +1393,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274412/chicken-street-crepes/</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Chicken Street Crepes</t>
         </is>
       </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n5 \n\n\nYield:\n5 servings"}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¾ cup milk\n\n\n½ cup all-purpose flour\n\n\n2  eggs\n\n\n1 tablespoon melted butter\n\n\n1 pinch salt\n\n\n  cooking spray"},{"ingredients":"1 tablespoon butter\n\n\n1 cup spinach leaves\n\n\n¼ cup sliced shallots\n\n\n1 cup chopped cooked chicken \n\n\n½ cup Brie cheese"}]</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup milk\n\n\n½ cup all-purpose flour\n\n\n2  eggs\n\n\n1 tablespoon melted butter\n\n\n1 pinch salt\n\n\n  cooking spray'}, {'recipe_ingredients': '1 tablespoon butter\n\n\n1 cup spinach leaves\n\n\n¼ cup sliced shallots\n\n\n1 cup chopped cooked chicken \n\n\n½ cup Brie cheese'}]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix milk, flour, eggs, melted butter, and salt together in a blender until combined. Let mixture rest for 15 minutes."},{"recipe_directions":"Heat a 12-inch nonstick skillet over medium heat; lightly coat with cooking spray. Add 1/2 cup of batter and swirl the skillet so the batter completely covers the bottom. Cook until bottom is golden brown, 2 to 3 minutes. Loosen the edges with a rubber spatula and use your fingers to quickly flip the crepe. Cook 1 minute more."},{"recipe_directions":"Slide crepe out of the skillet. Repeat with remaining batter, spraying skillet in between crepes. Stack cooked crepes directly on top of each other to maintain temperature."},{"recipe_directions":"Melt butter in a separate skillet over medium-high heat. Saute spinach and shallots until softened, about 3 minutes. Add chicken and mix to combine and heat through, 3 to 4 minutes. Set aside."},{"recipe_directions":"Spread 2 tablespoons Brie cheese onto each crepe; add chicken mixture. Fold crepe in half, return to the skillet, and heat until cheese is melted. Remove from skillet and roll into a cone shape."}]</t>
         </is>
       </c>
-      <c r="L15" s="1" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M15" s="1" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"240\nCalories\n\n\n14g \nFat\n\n\n13g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699653665-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BFT5NXUdisu0dMIgnVBNG2q2zN8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(494x0:496x2):format(webp)/7657094-e451d7c8131647b9a69f395ee633a570.jpg"
@@ -1199,69 +1464,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274384/mushroom-and-chicken-crepe-packets/</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Mushroom and Chicken Crepe Packets</t>
         </is>
       </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n5 \n\n\nYield:\n10 packets"}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup milk\n\n\n⅔ cup all-purpose flour\n\n\n3  eggs\n\n\n½ teaspoon salt\n\n\n1 teaspoon butter, or as needed"},{"ingredients":"3 cups sliced fresh mushrooms\n\n\n4 tablespoons chopped onion\n\n\n2 cloves garlic, minced\n\n\n½ cup ricotta cheese\n\n\n2 tablespoons cream cheese\n\n\n2 cups chopped rotisserie chicken meat\n\n\n  salt and ground black pepper to taste\n\n\n½ cup freshly grated Parmesan cheese"},{"ingredients":"1 tablespoon butter\n\n\n1 tablespoon all-purpose flour\n\n\n1 cup chicken broth\n\n\n2 tablespoons chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup milk\n\n\n⅔ cup all-purpose flour\n\n\n3  eggs\n\n\n½ teaspoon salt\n\n\n1 teaspoon butter, or as needed'}, {'recipe_ingredients': '3 cups sliced fresh mushrooms\n\n\n4 tablespoons chopped onion\n\n\n2 cloves garlic, minced\n\n\n½ cup ricotta cheese\n\n\n2 tablespoons cream cheese\n\n\n2 cups chopped rotisserie chicken meat\n\n\n  salt and ground black pepper to taste\n\n\n½ cup freshly grated Parmesan cheese'}, {'recipe_ingredients': '1 tablespoon butter\n\n\n1 tablespoon all-purpose flour\n\n\n1 cup chicken broth\n\n\n2 tablespoons chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine milk, flour, eggs, and salt in an electric blender; blend until smooth. Set crepe batter aside for at least 30 minutes."},{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Lightly grease a 9x13-inch baking pan."},{"recipe_directions":"Melt butter in a medium-sized skillet over medium heat. Pour 2 tablespoons of batter into the skillet and immediately rotate the skillet to spread batter out in a thin layer. Cook until the top of the crepe is no longer wet and the bottom has turned light brown, 1 to 2 minutes. Run a spatula around the edge of the skillet to loosen crepe; flip crepe and cook until the other side has turned light brown, about 1 minute more. Transfer crepe to a plate and continue with remaining batter."},{"recipe_directions":"Heat another skillet over medium-high heat. Add mushrooms and onion and saute until tender, about 5 minutes. Add garlic and saute until flavor releases, about 30 seconds. Stir in ricotta cheese and cream cheese until melted and well blended, 2 to 3 minutes. Stir in chicken and season with salt and pepper."},{"recipe_directions":"Spread a heaping tablespoon of Parmesan cheese in the middle of each crepe. Spoon 1/4 cup of the chicken-mushroom mixture onto each crepe. Fold sides in to make a packet. Place the crepes folded-side-down in the prepared baking pan."},{"recipe_directions":"Bake in the preheated oven until golden and bubbling, about 15 minutes."},{"recipe_directions":"Meanwhile, melt butter in a saucepan over medium heat. Stir in flour and cook for 1 minute. Pour in chicken broth and cook until slightly thickened, 5 to 7 minutes. Stir in parsley. Remove crepe packets from the oven; spoon gravy on top."}]</t>
         </is>
       </c>
-      <c r="L16" s="1" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M16" s="1" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"365\nCalories\n\n\n16g \nFat\n\n\n22g \nCarbs\n\n\n33g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699653675-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xaJsbxRSgZZQK3oh6L4opL6jT_4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/6730758-0266cad97a7e428897f443f22708b4f5.jpg"
@@ -1274,69 +1535,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274292/chicken-crepe-riviera/</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Chicken Crepe Riviera</t>
         </is>
       </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup milk\n\n\n½ cup all-purpose flour\n\n\n2  eggs\n\n\n1 tablespoon butter, at room temperature\n\n\n6 leaves fresh basil leaves, minced\n\n\n1 pinch salt"},{"ingredients":"1 ½ pounds chicken tenderloins, diced\n\n\n¼ cup grapeseed oil\n\n\n1 ½ tablespoons balsamic vinegar\n\n\n1 pinch salt"},{"ingredients":"1 head broccoli, chopped\n\n\n1 tablespoon butter\n\n\n2 cloves garlic, minced\n\n\n2  Roma tomatoes, chopped\n\n\n½ (8 ounce) package sliced portobello mushrooms (Optional)"},{"ingredients":"¾ cup heavy cream\n\n\n2 tablespoons semi-soft cheese with garlic and herbs (such as Allouette®)\n\n\n1 tablespoon pesto"}]</t>
-        </is>
-      </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup milk\n\n\n½ cup all-purpose flour\n\n\n2  eggs\n\n\n1 tablespoon butter, at room temperature\n\n\n6 leaves fresh basil leaves, minced\n\n\n1 pinch salt'}, {'recipe_ingredients': '1 ½ pounds chicken tenderloins, diced\n\n\n¼ cup grapeseed oil\n\n\n1 ½ tablespoons balsamic vinegar\n\n\n1 pinch salt'}, {'recipe_ingredients': '1 head broccoli, chopped\n\n\n1 tablespoon butter\n\n\n2 cloves garlic, minced\n\n\n2  Roma tomatoes, chopped\n\n\n½ (8 ounce) package sliced portobello mushrooms (Optional)'}, {'recipe_ingredients': '¾ cup heavy cream\n\n\n2 tablespoons semi-soft cheese with garlic and herbs (such as Allouette®)\n\n\n1 tablespoon pesto'}]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine milk, flour, and eggs in a blender. Blend until smooth, about 1 minute."},{"recipe_directions":"Heat a nonstick pan over medium-high heat. Brush hot pan with a small amount of butter. Ladle about 3 tablespoons of batter into the center of the pan. Tilt pan from left to right to cover entire surface. Sprinkle top of the crepe with 1 or 2 teaspoons of basil."},{"recipe_directions":"Cook until edges begin to brown, 2 to 3 minutes. Flip crepe over and cook until set, about 2 minutes more. Remove to a plate. Cook remaining batter, re-brushing pan with butter and stacking crepes with parchment paper in between."},{"recipe_directions":"Mix chicken, grapeseed oil, balsamic vinegar, and salt together in a resealable zip-top bag; marinate for 20 to 30 minutes."},{"recipe_directions":"Drain and discard marinade. Heat a skillet over medium-high heat. Add chicken; cook and stir until juices run clear, about 5 minutes."},{"recipe_directions":"Place broccoli in a microwave-safe bowl with 2 tablespoons water. Microwave until crisp-tender, 3 to 4 minutes."},{"recipe_directions":"Combine butter and garlic in the same skillet over medium heat. Cook until fragrant, about 1 minute. Add the broccoli; stir to coat with the garlic butter. Stir in tomatoes and mushrooms and heat through."},{"recipe_directions":"Stir cream, cheese, and pesto together in a separate saucepan over medium heat. Cook and stir until sauce comes together, 3 to 5 minutes."},{"recipe_directions":"Lay a crepe on a plate, line chicken filling down the middle, and drizzle sauce on top. Fold crepe over burrito-style; spoon more chicken and sauce over top. Repeat with remaining crepes, filling, and sauce."}]</t>
         </is>
       </c>
-      <c r="L17" s="1" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M17" s="1" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"478\nCalories\n\n\n32g \nFat\n\n\n17g \nCarbs\n\n\n32g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699653682-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IAxM6Tr7ggCajH8CC73RZueWl1M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7188353-f507aeab7cb949cfa9f875e7ecba4e5d.jpg"
@@ -1349,69 +1606,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276900/pumpkin-crepes-with-fontina-cheese-sauce/</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Pumpkin Crepes with Fontina Cheese Sauce</t>
         </is>
       </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 1 hr 15 mins\n\n\nTotal Time:\n 2 hrs 10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 crepes"}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1  egg\n\n\n2 ½ ounces all-purpose flour\n\n\n½ teaspoon salt\n\n\n½ cup milk\n\n\n½ tablespoon butter, melted\n\n\n2 teaspoons oil, or as needed"},{"ingredients":"1 tablespoon butter\n\n\n1 tablespoon extra-virgin olive oil\n\n\n2 cups peeled and diced pumpkin\n\n\n1 small leek, white and light green parts only, thinly sliced\n\n\n  salt and ground black pepper to taste"},{"ingredients":"4 ounces shredded fontina cheese\n\n\n⅓ cup half-and-half\n\n\n  cooking spray\n\n\n4 sprigs fresh rosemary, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  egg\n\n\n2 ½ ounces all-purpose flour\n\n\n½ teaspoon salt\n\n\n½ cup milk\n\n\n½ tablespoon butter, melted\n\n\n2 teaspoons oil, or as needed'}, {'recipe_ingredients': '1 tablespoon butter\n\n\n1 tablespoon extra-virgin olive oil\n\n\n2 cups peeled and diced pumpkin\n\n\n1 small leek, white and light green parts only, thinly sliced\n\n\n  salt and ground black pepper to taste'}, {'recipe_ingredients': '4 ounces shredded fontina cheese\n\n\n⅓ cup half-and-half\n\n\n  cooking spray\n\n\n4 sprigs fresh rosemary, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat egg with a hand mixer in a bowl. Slowly add flour and salt, alternating with milk, mixing well between additions. Add melted butter and mix until smooth. Cover and refrigerate batter for 1 hour."},{"recipe_directions":"Heat a small, 6- to 7-inch nonstick skillet over medium-high heat and brush with oil. Pour 1/4 cup of the crepe batter into pan, tilting to coat surface completely. Cook until crepes are dry on the surface, 1 to 2 minutes per side. Repeat with remaining batter, brushing pan with oil between crepes as needed, to make 4 to 5 crepes total."},{"recipe_directions":"Heat butter and olive oil in a medium skillet over medium heat. Add pumpkin and leek; season with salt and pepper. Cook, stirring frequently, until leek is translucent and pumpkin is tender, 7 to 8 minutes. Remove from heat, cover, and let cool for about 15 minutes."},{"recipe_directions":"Meanwhile, combine fontina cheese and half-and-half in a small saucepan over medium-low heat. Stir frequently until cheese has melted and sauce is smooth, about 5 minutes."},{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Spray a casserole dish with cooking spray."},{"recipe_directions":"Divide the leek and pumpkin filling down the center of the crepes and fold the sides over the filling. Place filled crepes into the prepared casserole dish. Pour cheese sauce on top and add a few rosemary leaves."},{"recipe_directions":"Bake in the preheated oven for 15 minutes. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="L18" s="1" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M18" s="1" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"342\nCalories\n\n\n23g \nFat\n\n\n21g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699653691-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jAgURtCBUSpSzog3PHgkjhaRgFw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/805627-56a440d2726644129bba5244296da68a.jpg"
@@ -1424,69 +1677,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220141/wholesome-buckwheat-crepes/</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Wholesome Buckwheat Crepes</t>
         </is>
       </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 15 mins\n\n\nServings:\n2 \n\n\nYield:\n6 large crepes"}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"⅔ cup raw buckwheat groats\n\n\n1 ⅓ cups water, to cover\n\n\n1  egg\n\n\n2 tablespoons brown sugar\n\n\n¼ teaspoon ground cinnamon\n\n\n¼ teaspoon salt\n\n\n½ cup water, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅔ cup raw buckwheat groats\n\n\n1 ⅓ cups water, to cover\n\n\n1  egg\n\n\n2 tablespoons brown sugar\n\n\n¼ teaspoon ground cinnamon\n\n\n¼ teaspoon salt\n\n\n½ cup water, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine buckwheat groats with about 1 1/3 cup water in a bowl; allow to soak, draining and rinsing once or twice during soaking, 4 hours to overnight."},{"recipe_directions":"Rinse and drain groats one final time. Transfer drained groats to a blender with egg, brown sugar, cinnamon, salt, and 1/2 cup water; blend into a smooth batter. Blend more water into the mixture as needed to reach a smooth, spreadable texture."},{"recipe_directions":"Lightly grease a skillet and place over medium heat."},{"recipe_directions":"Pour about 1/3 cup batter into the skillet; lift and tilt the skillet to swirl the batter evenly over the skillet; return to heat."},{"recipe_directions":"Cook for about 2 minutes. Gently flip the crepe and cook the other side until the crepe is firm in the middle, about 2 minutes more; flip again and cook about 12 seconds. Plate and serve immediately."}]</t>
         </is>
       </c>
-      <c r="L19" s="1" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Savory"}]</t>
         </is>
       </c>
-      <c r="M19" s="1" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"283\nCalories\n\n\n4g \nFat\n\n\n54g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699653698-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pzhtdFxdQioSNvfy6ZY1pybEYPs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(998x0:1000x2):format(webp)/fullsizeoutput_5-2000-39f02853c7e2438a8f1857b3f92db8cc.jpeg"
@@ -1498,69 +1747,65 @@
 12 Crepe Recipes That Make Brunch a Big Deal</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/brunch-crepe-recipes/</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>12 Crepe Recipes That Make Brunch a Big Deal</t>
         </is>
       </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="L20" s="1" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Savory"}]</t>
         </is>
       </c>
-      <c r="M20" s="1" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699653705-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Aeow4ZjJ4S6CjJ8jCg5QXqdZeao=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1656x0:1658x2):format(webp)/6732798-ce3a5d55219f4cc6b84be86cc9279997.jpg"
@@ -1571,69 +1816,65 @@
 Savory Western Crepes</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274293/savory-western-crepes/</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Savory Western Crepes</t>
         </is>
       </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n4 \n\n\nYield:\n8 crepes"}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups milk\n\n\n1 cup all-purpose flour\n\n\n2 large eggs\n\n\n2 tablespoons chopped fresh cilantro\n\n\n1 tablespoon melted butter\n\n\n2 teaspoons chile-garlic sauce (such as Sriracha®)"},{"ingredients":"8 large eggs\n\n\n¼ cup milk\n\n\n½ cup shredded Cheddar cheese\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 teaspoon olive oil\n\n\n⅓ cup diced onion\n\n\n⅓ cup diced red bell pepper\n\n\n3 tablespoons diced jalapeno pepper (Optional)\n\n\n½ cup chopped ham\n\n\n2 tablespoons melted butter, or as needed, divided"}]</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups milk\n\n\n1 cup all-purpose flour\n\n\n2 large eggs\n\n\n2 tablespoons chopped fresh cilantro\n\n\n1 tablespoon melted butter\n\n\n2 teaspoons chile-garlic sauce (such as Sriracha®)'}, {'recipe_ingredients': '8 large eggs\n\n\n¼ cup milk\n\n\n½ cup shredded Cheddar cheese\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 teaspoon olive oil\n\n\n⅓ cup diced onion\n\n\n⅓ cup diced red bell pepper\n\n\n3 tablespoons diced jalapeno pepper (Optional)\n\n\n½ cup chopped ham\n\n\n2 tablespoons melted butter, or as needed, divided'}]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine milk, flour, eggs, cilantro, melted butter, and chile-garlic sauce in a blender. Blend until smooth and very thin, about 1 minute. Set batter aside to rest for at least 30 minutes."},{"recipe_directions":"Heat a crepe pan or small skillet over medium heat. Brush 1 tablespoon melted butter into the pan using a pastry brush and add 1/2 cup of crepe batter. Pick up the pan, tipping and rotating so batter forms a round shape and evenly coats the entire bottom of the pan. Return the pan to the burner and cook until small brown spots appear on the bottom of the crepe, 1 to 2 minutes."},{"recipe_directions":"Loosen crepe carefully using a spatula and gently flip it to brown the other side; cook for 30 to 60 seconds. Slide cooked crepe onto a plate. Repeat to cook additional crepes, adding more butter if needed, and stacking crepes on top of the first."},{"recipe_directions":"Whisk eggs and milk in a large bowl until well blended. Stir in Cheddar cheese, salt, and pepper."},{"recipe_directions":"Heat oil in a skillet over medium heat. Add onion, bell pepper, and jalapeno pepper and cook until tender, about 3 minutes. Stir in ham and continue cooking for another 2 minutes. Reduce heat to low and stir 1 tablespoon melted butter into the skillet. Add egg mixture and cook, stirring until eggs are scrambled and wet, but no longer runny, 3 to 5 minutes. Remove from heat."},{"recipe_directions":"Spoon about 1/4 cup of the egg mixture across the lower 1/3 of a crepe and roll up like a jelly roll. Repeat with remaining crepes and filling."}]</t>
         </is>
       </c>
-      <c r="L21" s="1" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M21" s="1" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"528\nCalories\n\n\n31g \nFat\n\n\n33g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699653713-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5EPTKpB6glIOLkkvzxXe5kViRYY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/6711654-faa62339cd6c4e8c8e0665356c638d22.jpg"
@@ -1646,69 +1887,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274177/cajun-shrimp-crepes/</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Cajun Shrimp Crepes</t>
         </is>
       </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup milk\n\n\n⅔ cup all-purpose flour\n\n\n3  eggs\n\n\n½ teaspoon granulated garlic\n\n\n1 pinch salt"},{"ingredients":"¼ cup butter\n\n\n½ cup chopped red bell pepper\n\n\n½ cup chopped green bell pepper\n\n\n½ cup chopped onion\n\n\n1 clove garlic, minced\n\n\n1 pound shrimp, peeled and deveined\n\n\n1 tablespoon Cajun seasoning"},{"ingredients":"½ cup heavy cream\n\n\n2 tablespoons all-purpose flour\n\n\n1 teaspoon Cajun seasoning\n\n\n2 tablespoons dry white wine"}]</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup milk\n\n\n⅔ cup all-purpose flour\n\n\n3  eggs\n\n\n½ teaspoon granulated garlic\n\n\n1 pinch salt'}, {'recipe_ingredients': '¼ cup butter\n\n\n½ cup chopped red bell pepper\n\n\n½ cup chopped green bell pepper\n\n\n½ cup chopped onion\n\n\n1 clove garlic, minced\n\n\n1 pound shrimp, peeled and deveined\n\n\n1 tablespoon Cajun seasoning'}, {'recipe_ingredients': '½ cup heavy cream\n\n\n2 tablespoons all-purpose flour\n\n\n1 teaspoon Cajun seasoning\n\n\n2 tablespoons dry white wine'}]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine milk, flour, and eggs in a blender. Blend on high speed until well mixed, about 1 minute. Let batter rest for 30 minutes."},{"recipe_directions":"Heat an 8-inch nonstick skillet over medium heat. Lift pan and pour about 3 tablespoons batter into the center; tilt skillet so batter evenly coats bottom. Cook until top appears dry, 45 to 60 seconds. Flip and cook 15 to 20 seconds more. Remove crepe and stack onto a plate. Repeat with remaining batter; you will have leftover crepes for another use."},{"recipe_directions":"Melt 2 tablespoons butter for filling in a skillet over medium heat. Add bell peppers and onion; stir-fry until tender, about 5 minutes. Stir in garlic and cook until fragrant. Add remaining butter, shrimp, and Cajun seasoning."},{"recipe_directions":"Mix cream, flour, and Cajun seasoning together; slowly pour into the shrimp mixture. Cook and stir until slightly thickened, about 2 minutes. Pour in white wine and cook until heated through and thickened as desired, 2 to 5 minutes more."},{"recipe_directions":"Spoon some of the shrimp filling into the middle of each crepe and roll crepe around filling, or fold in halves or quarters."}]</t>
         </is>
       </c>
-      <c r="L22" s="1" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M22" s="1" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"499\nCalories\n\n\n29g \nFat\n\n\n29g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699653720-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8YfvYyiV_9VxHUf7VZh6VWymY1c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5974480-006354bd270c4f2f8b9f2b690bc02c66.jpg"
@@ -1721,69 +1958,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222804/indian-crepes/</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Indian Crepes</t>
         </is>
       </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup all-purpose flour\n\n\n1 cup water\n\n\n1  egg\n\n\n2 tablespoons butter, melted\n\n\n1 pinch salt\n\n\n1 tablespoon caraway seeds"}]</t>
-        </is>
-      </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup all-purpose flour\n\n\n1 cup water\n\n\n1  egg\n\n\n2 tablespoons butter, melted\n\n\n1 pinch salt\n\n\n1 tablespoon caraway seeds'}]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a non-stick crepe pan over medium-high heat."},{"recipe_directions":"Whisk flour and water together in a bowl. Add egg and mix well. Whisk butter, salt, and caraway seeds into flour mixture to form a smooth batter."},{"recipe_directions":"Pour about 1/4 cup batter into heated pan. Tilt the pan around so the batter forms a nice round shape. Cook until bubbles form throughout the batter, 2 to 4 minutes. Flip the crepe by using spatula to loosen it from the pan. Flick your wrist upwards to give the crepe a toss, flipping it, and landing it back in the pan. Cook the second side until lightly browned, about 30 seconds. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="L23" s="1" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Savory"}]</t>
         </is>
       </c>
-      <c r="M23" s="1" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"125\nCalories\n\n\n5g \nFat\n\n\n17g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699653728-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/t5icmksWPmg0pBoood9zl6J28cg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3776805-ade77713140a4cc8839c712f671d3a0a.jpg"
@@ -1794,69 +2027,65 @@
 Chestnut Flour Crepes (Gluten- and Wheat-Free)</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254533/chestnut-flour-crepes-gluten-and-wheat-free/</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Chestnut Flour Crepes (Gluten- and Wheat-Free)</t>
         </is>
       </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n4 mins\n\n\nTotal Time:\n14 mins\n\n\nServings:\n8 \n\n\nYield:\n8 crepes"}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup milk\n\n\n2  eggs\n\n\n1 tablespoon vegetable oil\n\n\n1 cup chestnut flour\n\n\n  vegetable oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup milk\n\n\n2  eggs\n\n\n1 tablespoon vegetable oil\n\n\n1 cup chestnut flour\n\n\n  vegetable oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk milk, eggs, and 1 tablespoon vegetable oil together in a bowl until thoroughly combined. Sprinkle in the chestnut flour 1/4 cup at a time, mixing well to avoid lumps, until batter is a liquid consistency. Whisk vigorously; pour through a fine strainer to remove any lumps."},{"recipe_directions":"Heat cooking oil in an 8-inch crepe pan over medium-high heat. Pour in 1/4 cup of batter; swirl batter around to cover the entire surface. Cook until the edges have browned and are easily loosened with a spatula, 2 to 3 minutes per side. Transfer to a serving plate. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="L24" s="1" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M24" s="1" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"78\nCalories\n\n\n4g \nFat\n\n\n7g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699653736-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/na_zVEHxS4MIYXMKIjWw3nOHxwM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7912080-f3771d4c8ef648188e50e63dfc3a2894.jpg"
@@ -1869,69 +2098,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24569/crepes-with-spinach-bacon-and-mushroom-filling/</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Crepes with Spinach, Bacon and Mushroom Filling</t>
         </is>
       </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 recipe Basic Crepes\n\n\n6 slices bacon\n\n\n1 tablespoon unsalted butter\n\n\n½ pound fresh mushrooms, sliced\n\n\n3 tablespoons unsalted butter\n\n\n¼ cup all-purpose flour\n\n\n1 cup milk\n\n\n1 (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n1 tablespoon chopped fresh parsley\n\n\n2 tablespoons grated Parmesan cheese\n\n\n  salt and pepper to taste\n\n\n⅔ cup chicken broth\n\n\n2  eggs\n\n\n½ cup lemon juice\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 recipe Basic Crepes\n\n\n6 slices bacon\n\n\n1 tablespoon unsalted butter\n\n\n½ pound fresh mushrooms, sliced\n\n\n3 tablespoons unsalted butter\n\n\n¼ cup all-purpose flour\n\n\n1 cup milk\n\n\n1 (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n1 tablespoon chopped fresh parsley\n\n\n2 tablespoons grated Parmesan cheese\n\n\n  salt and pepper to taste\n\n\n⅔ cup chicken broth\n\n\n2  eggs\n\n\n½ cup lemon juice\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Prepare Basic Crepes recipe according to recipe directions. Separate with wax paper and keep warm until ready to serve."},{"recipe_directions":"Place bacon in a large, deep skillet. Cook over medium-high heat until evenly brown. Drain, crumble and set aside. Reserve about 1 tablespoon drippings, add 1 tablespoon butter, and saute mushrooms."},{"recipe_directions":"In a separate saucepan, melt 3 tablespoons butter over medium heat. Whisk in 1/4 cup flour, stirring constantly, until a smooth paste is formed. Gradually stir in 1 cup milk, stirring constantly until a smooth thick gravy is formed. Add bacon, mushrooms, spinach, parsley, Parmesan cheese, salt and pepper. Let cook until somewhat thick, about 10 minutes."},{"recipe_directions":"In saucepan bring broth to a boil. In a small bowl, whisk together eggs and lemon juice. Temper eggs and broth together whisking constantly so as to cook, but not to scramble the eggs. (Cooking eggs to 170 degrees F). Again, salt and pepper to taste."},{"recipe_directions":"Fill each crepe with spinach and meat filling, roll up, and top with warm egg sauce."}]</t>
         </is>
       </c>
-      <c r="L25" s="1" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Savory"}]</t>
         </is>
       </c>
-      <c r="M25" s="1" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"445\nCalories\n\n\n36g \nFat\n\n\n18g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699653741-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ad8Cx939hAB2f6apvGXg2ioWYFY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2616940-ab957bb6c5164eb7832b9b887080eacb.jpg"
@@ -1944,69 +2169,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/147210/dosas-indian-style-pancakes/</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Dosas (Indian-style Pancakes)</t>
         </is>
       </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n8 \n\n\nYield:\n8 pancakes"}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup brown rice flour\n\n\n½ cup whole wheat flour\n\n\n1 ½ cups water\n\n\n1  red onion, finely chopped\n\n\n1 clove garlic, minced\n\n\n¼ cup fresh cilantro, chopped\n\n\n¼ teaspoon white sugar\n\n\n½ teaspoon ground turmeric\n\n\n1 teaspoon ground cumin\n\n\n2 teaspoons whole mustard seeds\n\n\n1 teaspoon cumin seeds\n\n\n1 teaspoon ground coriander\n\n\n1 teaspoon ground ginger\n\n\n1 pinch cayenne pepper\n\n\n3 tablespoons rice vinegar\n\n\n1 tablespoon vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup brown rice flour\n\n\n½ cup whole wheat flour\n\n\n1 ½ cups water\n\n\n1  red onion, finely chopped\n\n\n1 clove garlic, minced\n\n\n¼ cup fresh cilantro, chopped\n\n\n¼ teaspoon white sugar\n\n\n½ teaspoon ground turmeric\n\n\n1 teaspoon ground cumin\n\n\n2 teaspoons whole mustard seeds\n\n\n1 teaspoon cumin seeds\n\n\n1 teaspoon ground coriander\n\n\n1 teaspoon ground ginger\n\n\n1 pinch cayenne pepper\n\n\n3 tablespoons rice vinegar\n\n\n1 tablespoon vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir the brown rice and whole wheat flours together in a mixing bowl. Stir in the water to make a thin batter. Add the onion, garlic, cilantro, sugar, turmeric, cumin, mustard seeds, cumin seeds, coriander, ginger, cayenne pepper and rice vinegar until evenly blended. Cover, and refrigerate for at least 1/2 hour, or overnight."},{"recipe_directions":"To cook the dosas, heat the oil in a skillet over medium heat. Pour 1/4 cup of batter into the skillet, spreading it over the bottom in a thin layer. Cook 1 minute, turn, and cook 1 minute more. Remove from the pan. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="L26" s="1" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Savory"}]</t>
         </is>
       </c>
-      <c r="M26" s="1" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"119\nCalories\n\n\n3g \nFat\n\n\n21g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699653747-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TzQgTR-hF_zhHsF2j0oooNqygk8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1151x0:1153x2):format(webp)/6325222-90121534091c4297a51637e445e02fe7.jpg"
@@ -2019,69 +2240,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233544/crab-crepes/</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Crab Crêpes</t>
         </is>
       </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 50 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups flour\n\n\n1 cup cold water\n\n\n4 large eggs\n\n\n2 tablespoons melted butter\n\n\n½ teaspoon salt"},{"ingredients":"4 tablespoons butter\n\n\n½ cup chopped green onion\n\n\n¾ cup dry sherry\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n3 cups fresh crabmeat, cooked and diced"},{"ingredients":"4 tablespoons butter\n\n\n6 tablespoons all-purpose flour\n\n\n2 cups hot milk\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n½ cup heavy cream\n\n\n2  egg yolks\n\n\n1 cup grated Swiss cheese"}]</t>
-        </is>
-      </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups flour\n\n\n1 cup cold water\n\n\n4 large eggs\n\n\n2 tablespoons melted butter\n\n\n½ teaspoon salt'}, {'recipe_ingredients': '4 tablespoons butter\n\n\n½ cup chopped green onion\n\n\n¾ cup dry sherry\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n3 cups fresh crabmeat, cooked and diced'}, {'recipe_ingredients': '4 tablespoons butter\n\n\n6 tablespoons all-purpose flour\n\n\n2 cups hot milk\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n½ cup heavy cream\n\n\n2  egg yolks\n\n\n1 cup grated Swiss cheese'}]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the crêpes: Place flour, water, eggs, melted butter, and salt into a blender. Cover and blend for 2 minutes. Chill batter in the refrigerator for two hours."},{"recipe_directions":"Heat an oiled, non-stick skillet over medium heat. Pour in enough of the chilled batter to cover half of the skillet. Tip and rotate the skillet until the batter covers the entire area. Cook until the batter turns from wet to moist, and the edges begin to curl away from the sides of the skillet. Turn the crêpe over, and continue cooking until lightly golden on the other side. Place the crêpe onto a plate, and cover with a kitchen towel to keep moist. Repeat with the remaining batter, lightly oiling the skillet as needed to keep the crêpes from sticking."},{"recipe_directions":"Prepare the filling: Heat butter in a skillet over medium-high heat and cook and stir green onions until tender, 3 to 5 minutes. Add sherry, salt, and pepper; stir to combine. Mix in crab."},{"recipe_directions":"Make the sauce: Melt butter in a saucepan over medium-high heat. Whisk in flour. Add milk, salt, and pepper; bring to a boil for 1 minute. Remove from heat."},{"recipe_directions":"Beat heavy cream and egg yolks together in a small bowl. Gradually add egg mixture to butter-flour mixture, stirring constantly. Fold in grated cheese to form a thick sauce."},{"recipe_directions":"Pour sauce into crab meat mixture, reserving 1 cup of the sauce; stir to combine."},{"recipe_directions":"Lay out one crêpe on a flat surface. Spoon 2 heaping spoonfuls of crab mixture at one end of the crêpe, then roll crêpe up around the filling. Repeat with remaining crêpes. Top each with reserved cheese sauce and serve."}]</t>
         </is>
       </c>
-      <c r="L27" s="1" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Savory"}]</t>
         </is>
       </c>
-      <c r="M27" s="1" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"542\nCalories\n\n\n33g \nFat\n\n\n38g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699653752-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F_PoVxrQkbCqMKmcf1Pl8dB9BXQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1980918-5acffa7425e346f69c20987e0a6e2d5b.jpg"
@@ -2094,69 +2311,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223531/savory-french-crepes/</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Savory French Crêpes</t>
         </is>
       </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 crepes"}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2  eggs\n\n\n1 ½ cups milk\n\n\n2 tablespoons butter\n\n\n¼ cup buckwheat flour\n\n\n¾ cup all-purpose flour\n\n\n1 pinch salt\n\n\n3 tablespoons butter\n\n\n½ cup cremini mushrooms, sliced\n\n\n½ cup oyster mushrooms, sliced\n\n\n1 cup diced tomatoes\n\n\n2 cups baby spinach leaves\n\n\n4 teaspoons butter, divided\n\n\n1 cup shredded Gruyère cheese, divided"}]</t>
-        </is>
-      </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  eggs\n\n\n1 ½ cups milk\n\n\n2 tablespoons butter\n\n\n¼ cup buckwheat flour\n\n\n¾ cup all-purpose flour\n\n\n1 pinch salt\n\n\n3 tablespoons butter\n\n\n½ cup cremini mushrooms, sliced\n\n\n½ cup oyster mushrooms, sliced\n\n\n1 cup diced tomatoes\n\n\n2 cups baby spinach leaves\n\n\n4 teaspoons butter, divided\n\n\n1 cup shredded Gruyère cheese, divided'}]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the crêpe batter: Combine eggs, milk, and 2 tablespoons butter in a blender. Add buckwheat flour, all-purpose flour, and a pinch of salt; purée until smooth. Cover and refrigerate for 8 hours or overnight."},{"recipe_directions":"Make the filling: Melt 3 tablespoons butter in a large skillet over medium-high heat. Add cremini and oyster mushrooms; cook and stir until golden brown, about 10 minutes. Add tomatoes and spinach; cook and stir until spinach is wilted, 3 to 4 minutes. Remove from the heat."},{"recipe_directions":"Melt 1 teaspoon butter in another large skillet over medium heat. Pour about 1/4 cup batter (depending on the size of your pan) into the hot skillet' immediately tilt and swirl the pan to evenly distribute batter along the bottom. Cook until the center is set and the edges begin to brown, 3 to 4 minutes. Sprinkle 1/4 of the filling in the middle of each crêpe, then sprinkle with 3 tablespoons Gruyère cheese. Fold the crêpe in thirds over the filling, forming a triangle shape. Sprinkle 1 tablespoon Gruyère over top. Repeat to make remaining crêpes, adding 1 teaspoon butter for each one."}]</t>
         </is>
       </c>
-      <c r="L28" s="1" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Savory"}]</t>
         </is>
       </c>
-      <c r="M28" s="1" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"507\nCalories\n\n\n34g \nFat\n\n\n31g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699653757-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZLyiYjQhM0LF3taeF7IRIS_By1o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5315208-7caed9eafb59409bae923ed8f646c8f6.jpg"
@@ -2169,69 +2382,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236387/shrimp-crepes/</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Shrimp Crêpes</t>
         </is>
       </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"cooking spray"},{"ingredients":"1 ½ cups milk\n\n\n3  eggs\n\n\n1 ¼ cups all-purpose flour\n\n\n¼ teaspoon salt"},{"ingredients":"1 ½ cups water\n\n\n¼ cup all-purpose flour\n\n\n¼ teaspoon salt\n\n\n2 tablespoons butter\n\n\n4 cloves garlic, minced\n\n\n2 pounds shrimp, peeled and deveined\n\n\n8 ounces lobster meat (Optional)\n\n\n1 tablespoon lemon juice\n\n\n1 pinch cayenne pepper\n\n\n¼ cup grated Parmesan cheese"},{"ingredients":"1 cup milk\n\n\n2 tablespoons mayonnaise\n\n\n1 tablespoon all-purpose flour"}]</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray'}, {'recipe_ingredients': '1 ½ cups milk\n\n\n3  eggs\n\n\n1 ¼ cups all-purpose flour\n\n\n¼ teaspoon salt'}, {'recipe_ingredients': '1 ½ cups water\n\n\n¼ cup all-purpose flour\n\n\n¼ teaspoon salt\n\n\n2 tablespoons butter\n\n\n4 cloves garlic, minced\n\n\n2 pounds shrimp, peeled and deveined\n\n\n8 ounces lobster meat (Optional)\n\n\n1 tablespoon lemon juice\n\n\n1 pinch cayenne pepper\n\n\n¼ cup grated Parmesan cheese'}, {'recipe_ingredients': '1 cup milk\n\n\n2 tablespoons mayonnaise\n\n\n1 tablespoon all-purpose flour'}]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spray a 9x12-inch baking dish with cooking spray."},{"recipe_directions":"Make the crêpes: Beat milk and eggs together in a large bowl using an electric mixer until frothy, about 2 minutes. Add flour and salt to milk mixture; beat until incorporated, about 2 more minutes."},{"recipe_directions":"Heat a nonstick skillet over medium heat. Pour 1/4 cup batter into the skillet and immediately rotate the skillet until the batter evenly coats the bottom in a thin layer. Cook until the top of the crêpe is no longer wet and the bottom has turned light brown, about 4 minutes. Run a spatula around the edge of the skillet to loosen; flip crêpe and cook until the other side has turned light brown, about 2 more minutes."},{"recipe_directions":"Prepare the filling: Whisk water, flour, and salt together in a bowl."},{"recipe_directions":"Place butter and garlic in a nonstick skillet over low heat. Cover skillet and cook until garlic is golden brown, about 7 minutes. Add shrimp and lobster meat; stir, cover skillet, and cook until shrimp are bright pink and cooked through, about 5 minutes. Add lemon juice and cayenne pepper; stir, cover skillet, and cook for 5 more minutes."},{"recipe_directions":"Whisk water-flour mixture and stir into shrimp mixture. Sprinkle Parmesan cheese over shrimp mixture; cook and stir over medium heat until thickened, about 1 minute. Remove skillet from heat and spoon shrimp filling onto each crêpe. Roll each crêpe around filling and place in the prepared baking dish."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Make the sauce: Combine milk, mayonnaise, and flour in a small saucepan; cook and stir over medium heat until bubbling, 2 to 3 minutes. Drizzle sauce over filled crêpes."},{"recipe_directions":"Bake in the preheated oven until crêpes are cooked through and sauce is bubbling, 25 to 30 minutes."}]</t>
         </is>
       </c>
-      <c r="L29" s="1" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M29" s="1" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"291\nCalories\n\n\n10g \nFat\n\n\n20g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699653771-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UoUDRjPJ1t3Naqv0Hw7fiz-0A-8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7993942-21e937a772bc4f32b9638581e8615ebd.jpg"
@@ -2244,69 +2453,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/272380/sourdough-crepes/</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Sourdough Crêpes</t>
         </is>
       </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 crêpes"}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup fed or unfed sourdough starter\n\n\n2 large eggs\n\n\n2 tablespoons butter, melted\n\n\n¼ teaspoon salt\n\n\n¼ cup milk, or more as needed\n\n\n6 teaspoons cold butter"}]</t>
-        </is>
-      </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup fed or unfed sourdough starter\n\n\n2 large eggs\n\n\n2 tablespoons butter, melted\n\n\n¼ teaspoon salt\n\n\n¼ cup milk, or more as needed\n\n\n6 teaspoons cold butter'}]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together sourdough starter, eggs, melted butter, and salt in a large bowl. Pour in milk and stir until batter reaches a thin, smooth consistency."},{"recipe_directions":"Heat a nonstick pan over medium-high heat."},{"recipe_directions":"Melt about 1 teaspoon cold butter in the preheated pan. Pour in 1/4 cup batter and tilt the pan in a circular motion to spread batter over the bottom. Cook until the bottom is light brown, about 2 minutes. Carefully loosen crêpe from the pan, flip, and cook for about 30 seconds more. Transfer to a plate. Repeat with remaining butter and batter."}]</t>
         </is>
       </c>
-      <c r="L30" s="1" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M30" s="1" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"157\nCalories\n\n\n10g \nFat\n\n\n12g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699653776-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tG4hMluInIKgBrO6AvaqWmFDvyQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/870850-melt-in-your-mouth-crepes-LatinaCook-4x3-1-7ffff4db53d8411cb6d3d4a543dada8a.jpg"
@@ -2320,69 +2525,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222368/melt-in-your-mouth-crepes/</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Melt in Your Mouth Crepes</t>
         </is>
       </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups all-purpose flour\n\n\n1 cup milk\n\n\n2  eggs\n\n\n3 tablespoons butter, melted\n\n\n1 tablespoon white sugar\n\n\n1 dash vanilla extract (Optional)\n\n\n1 cup milk\n\n\n  cooking spray (such as Pam®)"}]</t>
-        </is>
-      </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups all-purpose flour\n\n\n1 cup milk\n\n\n2  eggs\n\n\n3 tablespoons butter, melted\n\n\n1 tablespoon white sugar\n\n\n1 dash vanilla extract (Optional)\n\n\n1 cup milk\n\n\n  cooking spray (such as Pam®)'}]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix flour, 1 cup milk, and eggs together in a large bowl. Stir butter, sugar, and vanilla extract into flour mixture until smooth. Add remaining 1 cup milk; mix until just blended."},{"recipe_directions":"Heat a cast iron crepe pan over medium heat; spray surface with cooking spray. Pour a thin and even layer of batter onto the heated pan; fry for 30 to 60 seconds on each side. Repeat with remaining batter, spraying the pan between each batch."}]</t>
         </is>
       </c>
-      <c r="L31" s="1" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Savory"}]</t>
         </is>
       </c>
-      <c r="M31" s="1" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"357\nCalories\n\n\n14g \nFat\n\n\n45g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699653781-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ivfhwNbtuQxhfExTOcDcOn7EooQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4023162-5f41744a6ee3457cbc29a4e8be5c0138.jpg"
@@ -2395,69 +2596,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16216/breakfast-crepes/</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Breakfast Crepes</t>
         </is>
       </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n3 \n\n\nYield:\n6 crepes"}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup all-purpose flour\n\n\n1 cup milk\n\n\n1  egg\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup all-purpose flour\n\n\n1 cup milk\n\n\n1  egg\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium-size mixing bowl, whisk together the flour, milk, egg and salt."},{"recipe_directions":"Heat a large frying pan or wok over medium high heat. When the pan is hot add a teaspoon of butter and lightly coat the surface of the pan with the melted butter."},{"recipe_directions":"Pour one quarter cup of the batter into the pan and tilt the pan with a circular motion so that the batter coats the surface in a smooth and even layer."},{"recipe_directions":"After two minutes, lift up an edge of the crepe with a spatula to see if it is browning. When the underside has begun to brown, flip the crepe and cook the other side until it is also brown; about 2 minutes."},{"recipe_directions":"Repeat steps 3 and 4 to cook the remaining crepes. Serve hot."}]</t>
         </is>
       </c>
-      <c r="L32" s="1" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M32" s="1" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"216\nCalories\n\n\n4g \nFat\n\n\n36g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699653788-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yDjWCY2wgvFu3eLYOKDs4vgCLyo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1599x839:1601x841):format(webp)/6755615-shrimp-and-scallop-crepes-lutzflcat-4x3-1-1a0cb550095b49d2bed47e4e96f8526f.jpg"
@@ -2471,69 +2668,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274300/shrimp-and-scallop-crepes/</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Shrimp and Scallop Crepes</t>
         </is>
       </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups milk\n\n\n1 cup all-purpose flour\n\n\n3 large eggs\n\n\n4 tablespoons melted butter, divided"},{"ingredients":"1 tablespoon butter\n\n\n6 ounces medium shrimp - peeled, deveined, and cut into 1/2-inch pieces\n\n\n6 ounces bay scallops\n\n\n1 teaspoon butter\n\n\n1 cup sliced mushrooms\n\n\n½ cup thinly sliced green onions\n\n\n4 tablespoons butter\n\n\n4 tablespoons all-purpose flour\n\n\n1 cup milk, or more as needed\n\n\n1 cup chicken broth\n\n\n⅓ cup grated Swiss cheese\n\n\n¼ cup dry white wine\n\n\n1 tablespoon sherry (Optional)\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups milk\n\n\n1 cup all-purpose flour\n\n\n3 large eggs\n\n\n4 tablespoons melted butter, divided'}, {'recipe_ingredients': '1 tablespoon butter\n\n\n6 ounces medium shrimp - peeled, deveined, and cut into 1/2-inch pieces\n\n\n6 ounces bay scallops\n\n\n1 teaspoon butter\n\n\n1 cup sliced mushrooms\n\n\n½ cup thinly sliced green onions\n\n\n4 tablespoons butter\n\n\n4 tablespoons all-purpose flour\n\n\n1 cup milk, or more as needed\n\n\n1 cup chicken broth\n\n\n⅓ cup grated Swiss cheese\n\n\n¼ cup dry white wine\n\n\n1 tablespoon sherry (Optional)\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine milk, flour, eggs, and melted butter in a blender. Process until smooth, for at least 1 minute. Set aside and let rest for 30 minutes."},{"recipe_directions":"Coat a crepe pan or nonstick small skillet with melted butter. Pour in 1/4 cup crepe batter and swirl the pan until entire bottom is covered in a thin layer of batter. Cook until small brown spots appear on the bottom of the crepe, 1 to 2 minutes."},{"recipe_directions":"Loosen crepe carefully from the pan using a spatula and gently flip to brown the other side, 1 to 2 minutes more. Slide crepe onto a plate. Repeat with remaining batter, re-buttering the pan as needed and stacking crepes onto the plate."},{"recipe_directions":"Melt 1 tablespoon butter in a skillet over medium heat. Add shrimp and scallops and cook until shrimp are bright pink on the outside and scallops are golden, 2 to 3 minutes. Remove from skillet."},{"recipe_directions":"Melt 1 teaspoon butter in the same skillet and increase heat to medium-high. Add mushrooms and green onions; saute until mushrooms are tender, 3 to 4 minutes. Remove from heat."},{"recipe_directions":"Melt 4 tablespoons butter in a saucepan over medium heat until bubbling. Whisk in flour until mixture becomes paste-like and lightly golden, about 2 minutes. Add milk and chicken broth and whisk until sauce is smooth and thickened. Thin out with more milk if needed."},{"recipe_directions":"Add Swiss cheese, wine, and sherry to the sauce; stir until cheese melts. Season with salt and pepper. Reserve 2/3 cup sauce. Add shrimp, scallops, mushrooms, and onions to the remaining 1/3 of the sauce and stir until heated through."},{"recipe_directions":"Spoon about 1/4 cup of the filling across the lower third of each crepe. Roll crepes up jellyroll-style and serve at the table with the reserved sauce."}]</t>
         </is>
       </c>
-      <c r="L33" s="1" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M33" s="1" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"450\nCalories\n\n\n25g \nFat\n\n\n29g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699653794-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3jJNo-smpesdc_3nlIrq5szjOBo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2079x0:2081x2):format(webp)/5169864-13234cb24496483bab6c0263b8b64411.jpg"
@@ -2546,69 +2739,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/186731/jian-bing-chinese-crepes/</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Jian Bing (Chinese Crêpes)</t>
         </is>
       </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n1 \n\n\nYield:\n1 crêpe"}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 tablespoons millet flour\n\n\n2 tablespoons soy milk\n\n\n½ teaspoon vegetable oil\n\n\n1 teaspoon water, if needed\n\n\n1 tablespoon Chinese black bean sauce\n\n\n1 teaspoon water\n\n\n½ teaspoon Asian chile pepper sauce, or to taste\n\n\n1 teaspoon water\n\n\n  cooking spray\n\n\n1  egg, beaten\n\n\n½  green onion, sliced\n\n\n1 tablespoon torn fresh cilantro leaves\n\n\n2  whole crackers"}]</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons millet flour\n\n\n2 tablespoons soy milk\n\n\n½ teaspoon vegetable oil\n\n\n1 teaspoon water, if needed\n\n\n1 tablespoon Chinese black bean sauce\n\n\n1 teaspoon water\n\n\n½ teaspoon Asian chile pepper sauce, or to taste\n\n\n1 teaspoon water\n\n\n  cooking spray\n\n\n1  egg, beaten\n\n\n½  green onion, sliced\n\n\n1 tablespoon torn fresh cilantro leaves\n\n\n2  whole crackers'}]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk millet flour, soy milk, and vegetable oil together in a bowl to make a batter with the consistency of heavy cream. Add a teaspoon of water to thin the batter, if necessary."},{"recipe_directions":"Mash black bean sauce in a small bowl with 1 teaspoon water to make it easy to spread. Mix hot chili sauce with 1 teaspoon of water in a separate small bowl. Set both sauces aside."},{"recipe_directions":"Spray a large skillet generously with cooking spray, and heat over medium-low heat. Pour batter into the skillet, and spread evenly to make a thin crêpe; cook until firm, about 1 to 2 minutes. Pour egg evenly over crêpe; cook an additional 1 to 2 minutes, until egg is set. Sprinkle crêpe with green onion slices and cilantro leaves, pressing them firmly into cooked egg."},{"recipe_directions":"Flip crêpe and spread with bean sauce and chili sauce. Place crackers in the center of crêpe, leaving about 1/4 inch of space between the two crackers. Flip top third of crêpe down over crackers; flip the bottom third up, and then fold the crêpe in half so the crackers are stacked on top of each other in a tidy package. Serve hot."}]</t>
         </is>
       </c>
-      <c r="L34" s="1" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Savory"}]</t>
         </is>
       </c>
-      <c r="M34" s="1" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"220\nCalories\n\n\n11g \nFat\n\n\n20g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699653798-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>Savory Crepes</t>
         </is>
       </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16143/breakfast-and-brunch/crepes/savory/</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tkjPObbcqpJZaaqwIeVgynmO6f0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/4511554-b5ead5bda2cd4ccda86206c102f4e307.jpg"
@@ -2621,136 +2810,104 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215962/blini-russian-pancakes/</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Blini (Russian Pancakes)</t>
         </is>
       </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6 \n\n\nYield:\n20 blinis"}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"4 ¼ cups milk\n\n\n5 large eggs\n\n\n2 tablespoons white sugar\n\n\n⅓ teaspoon salt\n\n\n½ teaspoon baking soda\n\n\n⅛ teaspoon citric acid powder\n\n\n4 cups all-purpose flour\n\n\n3 tablespoons vegetable oil\n\n\n1 cup boiling water\n\n\n⅔ cup butter, divided"}]</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 ¼ cups milk\n\n\n5 large eggs\n\n\n2 tablespoons white sugar\n\n\n⅓ teaspoon salt\n\n\n½ teaspoon baking soda\n\n\n⅛ teaspoon citric acid powder\n\n\n4 cups all-purpose flour\n\n\n3 tablespoons vegetable oil\n\n\n1 cup boiling water\n\n\n⅔ cup butter, divided'}]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat together milk and eggs in a large bowl until combined. Beat in sugar and salt. Mix in baking soda and citric acid until incorporated. Blend in flour, a little at a time, until combined. Beat in oil. Pour in boiling water, stirring constantly, until batter is thin and watery. Let rest for about 20 minutes."},{"recipe_directions":"Melt 1 tablespoon butter in a small frying pan over medium-high heat. Pick the pan up off the heat. Pour in a ladleful of batter while you rotate your wrist, tilting the pan, so batter forms a circle and coats the bottom. The blini should be very thin."},{"recipe_directions":"Return the pan to the heat. Cook blini for 90 seconds. Carefully lift up edge of blini to see if it's fully cooked: edges will be golden and bottom surface should have brown spots. Flip blini over and cook for 1 minute more."},{"recipe_directions":"Transfer blini to a plate lined with a clean kitchen towel. Continue cooking remaining batter, adding 1 tablespoon butter to the pan for every 4 blinis. Stack blinis and cover with another kitchen towel to keep warm."},{"recipe_directions":"Spread desired filling in the center of each blini. Fold 3 times to make a triangle shape or fold up all 4 sides, like a small burrito."}]</t>
         </is>
       </c>
-      <c r="L35" s="1" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="M35" s="1" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"525\nCalories\n\n\n26g \nFat\n\n\n57g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699653810-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699653817-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/e2B52Q2YBvkxbKxm1Hve0z69cOc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4485495-4702e892661e46ca8c0f371e493d232f.jpg"
@@ -2763,69 +2920,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/286297/grandma-knobels-crepes/</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Grandma Knobel's Crepes</t>
         </is>
       </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n3 \n\n\nYield:\n6 crepes"}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup all-purpose flour\n\n\n½ cup white sugar\n\n\n¼ teaspoon salt\n\n\n1 ½ cups milk\n\n\n3 large eggs\n\n\n½ teaspoon vanilla extract\n\n\n1 tablespoon avocado oil, divided, or as needed\n\n\n1 tablespoon unsalted butter, or to taste\n\n\n2 tablespoons maple syrup, or to taste\n\n\n1 tablespoon powdered sugar, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup all-purpose flour\n\n\n½ cup white sugar\n\n\n¼ teaspoon salt\n\n\n1 ½ cups milk\n\n\n3 large eggs\n\n\n½ teaspoon vanilla extract\n\n\n1 tablespoon avocado oil, divided, or as needed\n\n\n1 tablespoon unsalted butter, or to taste\n\n\n2 tablespoons maple syrup, or to taste\n\n\n1 tablespoon powdered sugar, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Sift flour, sugar, and salt into a large bowl. Add milk, eggs, and vanilla and whisk until smooth and slightly thinner than a regular pancake batter; do not overmix the batter or it will result in tougher crepes."},{"recipe_directions":"Heat an 8- to 10-inch skillet over medium heat. Add 1 teaspoon oil to the center of the pan."},{"recipe_directions":"Pour about 1/2 cup batter into the dot of oil. Hold the skillet by the handle and tilt the pan around so the batter evenly coats the entire skillet; the crepe should be about 1/8-inch thick. Cook until the bottom is medium brown, the top is dry, and the edges are starting to curl, about 1 minute. Flip the crepe and cook until golden brown on the other side, about 30 seconds. If each crepe takes longer than 2 minutes to cook, the batter may need to be thinner or you may need to use a higher heat."},{"recipe_directions":"Place crepe on a plate with a dab of butter on top. Drizzle with maple syrup, roll up, dust with powdered sugar, and serve."},{"recipe_directions":"Repeat Steps 3 and 4, adding more avocado oil to the skillet as needed."}]</t>
         </is>
       </c>
-      <c r="L37" s="1" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M37" s="1" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"525\nCalories\n\n\n16g \nFat\n\n\n80g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699653822-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NyhrdPUEfQHEKOsRA7h8CBkyIlQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/61549-568e4e50e81c4a9cb76b8ffacc339f75.jpg"
@@ -2838,69 +2991,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/52841/orange-anise-crepes/</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Orange-Anise Crepes</t>
         </is>
       </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"4  large eggs\n\n\n1 cup milk\n\n\n¾ cup orange juice\n\n\n1 tablespoon anise extract\n\n\n1 cup all-purpose flour\n\n\n2 tablespoons butter, divided\n\n\n  Sugar, for dusting"}]</t>
-        </is>
-      </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  large eggs\n\n\n1 cup milk\n\n\n¾ cup orange juice\n\n\n1 tablespoon anise extract\n\n\n1 cup all-purpose flour\n\n\n2 tablespoons butter, divided\n\n\n  Sugar, for dusting'}]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat together the eggs, milk, orange juice, anise, and flour until smooth. Refrigerate overnight."},{"recipe_directions":"To cook the crepes, melt a little butter in a heavy skillet over medium heat; brush the butter evenly over the pan. Pour in 1/4 cup of the batter, tilt the pan to distribute the batter evenly. Cook until the batter begins to firm up and bubble, when lightly browned, flip over, and continue cooking until browned on the other side, about 4 minutes total. Repeat with remaining batter. To serve, sprinkle crepes with sugar."}]</t>
         </is>
       </c>
-      <c r="L38" s="1" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M38" s="1" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"213\nCalories\n\n\n8g \nFat\n\n\n26g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699653829-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/j36szIC5USt5BH-kG0nFrYsUvmE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(649x0:651x2):format(webp)/4562696-ad7b29a6323b434da022cf08b1976e7b.jpg"
@@ -2913,69 +3062,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260514/dessert-crepes-with-raspberry-sorbet/</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Dessert Crepes with Raspberry Sorbet</t>
         </is>
       </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n8 mins\n\n\nAdditional Time:\n 2 hrs 40 mins\n\n\nTotal Time:\n 3 hrs 18 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¼ cup water\n\n\n3 tablespoons white sugar\n\n\n1 ½ cups fresh raspberries"},{"ingredients":"3  eggs\n\n\n½ cup milk (Optional)\n\n\n½ cup water\n\n\n3 tablespoons unsalted butter, melted\n\n\n¾ cup all-purpose flour\n\n\n½ teaspoon salt\n\n\n1 teaspoon butter"},{"ingredients":"3 tablespoons confectioners' sugar\n\n\n1  apple, cored and sliced\n\n\n1 sprig fresh mint (about 15 leaves)\n\n\n2 tablespoons currants"}]</t>
-        </is>
-      </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup water\n\n\n3 tablespoons white sugar\n\n\n1 ½ cups fresh raspberries'}, {'recipe_ingredients': '3  eggs\n\n\n½ cup milk (Optional)\n\n\n½ cup water\n\n\n3 tablespoons unsalted butter, melted\n\n\n¾ cup all-purpose flour\n\n\n½ teaspoon salt\n\n\n1 teaspoon butter'}, {'recipe_ingredients': "3 tablespoons confectioners' sugar\n\n\n1  apple, cored and sliced\n\n\n1 sprig fresh mint (about 15 leaves)\n\n\n2 tablespoons currants"}]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 1/4 water and 3 tablespoons sugar in a saucepan over medium heat until mixture is simmering and sugar is dissolved. Remove from heat and allow syrup to cool to room temperature."},{"recipe_directions":"Place raspberries in the bowl of a food processor; pulse until pureed. Pour cooled syrup into raspberry puree and mix well. Strain through a fine-meshed sieve into a container. Cover with plastic wrap and freeze until firm, at least 2 1/2 hours. Break up with a fork and place back in the freezer."},{"recipe_directions":"Combine eggs, milk, 1/2 cup water, and 3 tablespoons melted butter in a bowl; beat with an electric mixer until smooth and creamy. Add flour and salt and mix until batter is smooth."},{"recipe_directions":"Grease a 9-inch nonstick skillet with 1 teaspoon butter over medium heat. Pour a small ladleful of batter into the skillet. Immediately rotate the skillet until batter coats the cooking surface in a thin layer. Cook until the top of the crepe is no longer wet and the bottom has turned light brown, 1 to 2 minutes. Run a spatula around the edge of the skillet to loosen crepe; flip crepe and cook until the other side has turned light brown, about 1 minute more. Slide ready crepe onto a warmed plate and keep warm. Repeat with remaining batter."},{"recipe_directions":"Arrange crepes on plates and dust with confectioners' sugar. Place a scoop of raspberry sorbet on the side and garnish with apple slices, fresh mint leaves, and red currants."}]</t>
         </is>
       </c>
-      <c r="L39" s="1" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M39" s="1" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"223\nCalories\n\n\n9g \nFat\n\n\n30g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699653834-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dQVPv-aymKpquJsRhHhc5VFSwhE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/1Crepes-Suzette-2000-0cf5f48c9ec64c6e993048e13b2aa8c3.jpg"
@@ -2989,69 +3134,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8457631/crepes-suzette/</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Crêpes Suzette</t>
         </is>
       </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ cup whole milk\n\n\n⅓ cup water\n\n\n2 large eggs\n\n\n1 teaspoon white sugar\n\n\n¼ teaspoon kosher salt\n\n\n¾ cup all-purpose flour\n\n\n¼ cup unsalted butter, melted, divided\n\n\n1 teaspoon freshly grated orange zest"},{"ingredients":"⅓ cup fresh orange juice\n\n\n3 tablespoons white sugar\n\n\n1 teaspoon grated orange zest\n\n\n¼ cup unsalted butter, cut into pieces\n\n\n1 tablespoon orange liqueur (such as Grand Marnier®)\n\n\n¼ teaspoon kosher salt"},{"ingredients":"¼ cup orange liqueur (such as Grand Marnier®)\n\n\n½ cup vanilla ice cream, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup whole milk\n\n\n⅓ cup water\n\n\n2 large eggs\n\n\n1 teaspoon white sugar\n\n\n¼ teaspoon kosher salt\n\n\n¾ cup all-purpose flour\n\n\n¼ cup unsalted butter, melted, divided\n\n\n1 teaspoon freshly grated orange zest'}, {'recipe_ingredients': '⅓ cup fresh orange juice\n\n\n3 tablespoons white sugar\n\n\n1 teaspoon grated orange zest\n\n\n¼ cup unsalted butter, cut into pieces\n\n\n1 tablespoon orange liqueur (such as Grand Marnier®)\n\n\n¼ teaspoon kosher salt'}, {'recipe_ingredients': '¼ cup orange liqueur (such as Grand Marnier®)\n\n\n½ cup vanilla ice cream, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"To make the crêpes, combine milk, water, eggs, sugar, and salt in a blender; blend on medium speed until smooth, about 10 seconds. Add flour and blend until smooth, about 5 more seconds. Add 2 tablespoons of the melted butter and orange zest; pulse until incorporated, about 3 (1-second) pulses. Cover blender and place in refrigerator; let rest for 20 minutes."},{"recipe_directions":"Remove crêpe batter from fridge. Heat a small (6-inch) nonstick skillet or crêpe pan over medium. Add 1/2 teaspoon of the melted butter and swirl to coat skillet. Add 2 tablespoons batter and swirl to coat bottom of skillet. Cook, undisturbed, until the bottom is lightly golden, and the top is still a little moist, about 1 minute. Swirl skillet to loosen crêpe and gently flip with a spatula and your fingers. Cook until golden, about 30 seconds. Transfer to a plate. Repeat with remaining butter and batter."},{"recipe_directions":"To make orange sauce, combine orange juice, white sugar, and orange zest in a small skillet over medium. Cook, stirring often, until sugar is dissolved and the liquid starts to bubble, 3 to 4 minutes. Gradually add the butter, piece by piece, stirring constantly, until it is melted and fully incorporated, about 2 minutes. Let sauce come back up to a simmer and let simmer until slightly syrupy, stirring occasionally, about 2 to 3 minutes. Stir in orange liqueur and salt. Remove from the heat."},{"recipe_directions":"Fold each crêpe in half, then half again to make a triangle. Dip the folded crêpes into the hot orange sauce. Place on a serving platter. Repeat with remaining crêpes, overlapping each crêpe so they are facing the same direction."},{"recipe_directions":"To serve, pour orange liqueur into the skillet with the remaining orange sauce and place over medium-high. If it does not ignite automatically, use a long-stemmed lighter and carefully set the liqueur on fire. Let it burn for about 30 seconds. Pour the flaming liqueur over the crêpes on the platter and serve immediately with ice cream."}]</t>
         </is>
       </c>
-      <c r="L40" s="1" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M40" s="1" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"328\nCalories\n\n\n19g \nFat\n\n\n30g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699653840-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pnafKIVugVMmmQq_e9P1KYt6bak=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2574907-0270a67868244eb0ba45ecef0e7ae4fb.jpg"
@@ -3064,69 +3205,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222369/beer-batter-crepes-with-banana-cream-cheese-filling/</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Beer Batter Crepes with Banana Cream Cheese Filling</t>
         </is>
       </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup all-purpose flour\n\n\n1 cup stale beer, room temperature\n\n\n4  eggs, room temperature\n\n\n2 tablespoons vegetable oil\n\n\n¼ teaspoon ground nutmeg\n\n\n¼ teaspoon salt\n\n\n4  bananas, sliced 1/4-inch thick\n\n\n1  lemon, juiced, or as needed\n\n\n1 (8 ounce) package cream cheese\n\n\n¼ cup brown sugar\n\n\n1 cup whipped topping\n\n\n1 cup white sugar\n\n\n½ cup boiling water\n\n\n3 tablespoons cornstarch\n\n\n½ cup water\n\n\n3 tablespoons butter\n\n\n8 teaspoons vegetable oil, divided"}]</t>
-        </is>
-      </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup all-purpose flour\n\n\n1 cup stale beer, room temperature\n\n\n4  eggs, room temperature\n\n\n2 tablespoons vegetable oil\n\n\n¼ teaspoon ground nutmeg\n\n\n¼ teaspoon salt\n\n\n4  bananas, sliced 1/4-inch thick\n\n\n1  lemon, juiced, or as needed\n\n\n1 (8 ounce) package cream cheese\n\n\n¼ cup brown sugar\n\n\n1 cup whipped topping\n\n\n1 cup white sugar\n\n\n½ cup boiling water\n\n\n3 tablespoons cornstarch\n\n\n½ cup water\n\n\n3 tablespoons butter\n\n\n8 teaspoons vegetable oil, divided'}]</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk flour, beer, eggs, 2 tablespoons vegetable oil, nutmeg, and salt in a large bowl to form a smooth batter."},{"recipe_directions":"Toss bananas with enough lemon juice to coat in a separate bowl."},{"recipe_directions":"Beat the cream cheese and brown sugar together in a separate bowl until light and fluffy; fold whipped topping into cream cheese mixture to form the cheese filling. Set aside."},{"recipe_directions":"Heat white sugar in a saucepan over medium heat, stirring constantly, until melted and brown, 2 to 4 minutes. Remove sauce pan from heat and stir boiling water into melted sugar. Return to heat and stir until it forms a smooth and clear syrup."},{"recipe_directions":"Whisk cornstarch and 1/2 cup water together in a small bowl; add to syrup in saucepan. Simmer over low heat, stirring constantly, until thick and clear, 5 to 7 minutes. Whisk butter into syrup to form a caramel sauce."},{"recipe_directions":"Heat 1 teaspoon vegetable oil in an 8-inch crepe pan over medium heat. Pour about 1/4 cup crepe batter into heated oil. Tip and rotate the skillet until batter covers the entire area. Cook until the batter turns from wet to moist, and the edges begin to curl away from the sides of the skillet. Flip crepe and continue cooking until lightly golden on the other side. Place crepe onto a plate, and cover with a kitchen towel to keep moist. Repeat with remaining batter, lightly oiling the skillet as needed with 1 teaspoon vegetable oil each time to keep the crepes from sticking."},{"recipe_directions":"Assemble crepes by spreading about 2 tablespoons caramel sauce over each crepe. Spread 1/8 the cream cheese filling onto the caramel layer; top with 1/8 the bananas. Roll the crepe around the bananas and place seam-side down on a serving platter. Repeat with remaining crepes and ingredients. Drizzle remaining caramel sauce over crepes."}]</t>
         </is>
       </c>
-      <c r="L41" s="1" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M41" s="1" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"516\nCalories\n\n\n27g \nFat\n\n\n61g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699653845-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vM8eBu1QrL92xvrH_WAYCpFsdnk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/829140-708a2ac0c87e4601874eecffa879ea34.jpg"
@@ -3139,69 +3276,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/85808/chocolate-hazelnut-fruit-crepes/</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Chocolate Hazelnut Fruit Crepes</t>
         </is>
       </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup chocolate hazelnut spread\n\n\n4 (7 inch) pre-made crepes\n\n\n4  bananas, sliced\n\n\n1 (7 ounce) can pressurized whipped cream"}]</t>
-        </is>
-      </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup chocolate hazelnut spread\n\n\n4 (7 inch) pre-made crepes\n\n\n4  bananas, sliced\n\n\n1 (7 ounce) can pressurized whipped cream'}]</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spread 1/4 cup of chocolate hazelnut spread onto each crepe. Arrange 1 sliced banana down the center of each one. Roll up, and place in a warm skillet over medium heat. Let them warm up for about 90 seconds. Transfer to plates, and serve topped with whipped cream."}]</t>
         </is>
       </c>
-      <c r="L42" s="1" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M42" s="1" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"639\nCalories\n\n\n33g \nFat\n\n\n82g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699653853-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QK6KiZCgdTtRWIiBze15fHipXWc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3437519-676947e2f4f9441ca0f06690dda7aee6.jpg"
@@ -3214,69 +3347,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223167/love-letter-crepes/</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Love Letter - Crepes</t>
         </is>
       </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups all-purpose flour\n\n\n1 tablespoon white sugar\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n2 cups milk\n\n\n2 tablespoons butter, melted\n\n\n2  eggs\n\n\n½ teaspoon vanilla extract\n\n\n2 teaspoons vegetable oil, or as needed\n\n\n½ cup flaked coconut\n\n\n1 tablespoon white sugar, or more to taste\n\n\n¼ teaspoon ground cardamom"}]</t>
-        </is>
-      </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups all-purpose flour\n\n\n1 tablespoon white sugar\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n2 cups milk\n\n\n2 tablespoons butter, melted\n\n\n2  eggs\n\n\n½ teaspoon vanilla extract\n\n\n2 teaspoons vegetable oil, or as needed\n\n\n½ cup flaked coconut\n\n\n1 tablespoon white sugar, or more to taste\n\n\n¼ teaspoon ground cardamom'}]</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Sift flour, 1 tablespoon sugar, baking powder, and salt together in a large bowl. Whisk milk, butter, eggs, and vanilla extract into flour mixture until smooth."},{"recipe_directions":"Heat vegetable oil in a skillet over medium-high heat. Scoop about 1/4 cup batter and pour onto hot skillet. Tilt the pan in a circular motion to evenly distribute the batter. Cook crepe until bottom is lightly browned, about 2 minutes. Loosen with a spatula, flip, and cook the other side, about 2 more minutes. Transfer to a plate. Add more oil to the pan and repeat with remaining batter."},{"recipe_directions":"Mix coconut, 1 tablespoon white sugar, and cardamom together in a small bowl. Spread 1 to 2 tablespoons of coconut mixture into the center of each crepe; fold crepe over the filling like an envelope or in half."}]</t>
         </is>
       </c>
-      <c r="L43" s="1" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M43" s="1" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"204\nCalories\n\n\n8g \nFat\n\n\n27g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699653859-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/D5CY3iq3s0pi39g58iVNKGLLcoU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6763456-51f24326959e45a2919415ce82f88043.jpg"
@@ -3289,69 +3418,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/27161/strawberry-crepes/</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Strawberry Crepes</t>
         </is>
       </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1  egg, beaten\n\n\n¼ cup skim milk\n\n\n⅓ cup water\n\n\n1 tablespoon vegetable oil\n\n\n⅔ cup all-purpose flour\n\n\n¼ teaspoon white sugar\n\n\n1 pinch salt"},{"ingredients":"½ cup semisweet chocolate chips\n\n\n1 cup sliced fresh strawberries\n\n\n¾ cup frozen whipped topping, thawed"}]</t>
-        </is>
-      </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  egg, beaten\n\n\n¼ cup skim milk\n\n\n⅓ cup water\n\n\n1 tablespoon vegetable oil\n\n\n⅔ cup all-purpose flour\n\n\n¼ teaspoon white sugar\n\n\n1 pinch salt'}, {'recipe_ingredients': '½ cup semisweet chocolate chips\n\n\n1 cup sliced fresh strawberries\n\n\n¾ cup frozen whipped topping, thawed'}]</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, beat together egg, milk, water and oil. Beat in flour, sugar and salt until smooth."},{"recipe_directions":"Heat a medium, nonstick skillet over medium-high heat. Place a ladleful of crepe batter into center of pan, tilting to coat the bottom. Cook until golden brown on one side, turning once, 2 to 5 minutes. Continue with remaining batter."},{"recipe_directions":"In a small saucepan over low heat, melt chocolate chips, stirring constantly. Remove from heat."},{"recipe_directions":"To assemble, spread some melted chocolate on the lighter side of one crepe. Place a line of overlapping strawberries down the center of the crepe and roll it up. Top with whipped topping and drizzle with a bit more chocolate. Repeat with remaining crepes."}]</t>
         </is>
       </c>
-      <c r="L44" s="1" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M44" s="1" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"279\nCalories\n\n\n13g \nFat\n\n\n36g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699653863-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hXkn-YCeGEhmUolc8o_MDxjYpfs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/822533-64bedfd2d03a49d48c75e06a5faad4ca.jpg"
@@ -3364,69 +3489,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/85419/chocolate-banana-crepes/</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Chocolate Banana Crepes</t>
         </is>
       </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ cup whole or 2% milk\n\n\n1 ½ tablespoons melted butter\n\n\n1  egg yolk\n\n\n1 teaspoon vanilla\n\n\n2 teaspoons hazelnut liqueur\n\n\n1 tablespoon cocoa\n\n\n2 tablespoons confectioners' sugar\n\n\n⅓ cup white flour"},{"ingredients":"½ tablespoon butter\n\n\n1 tablespoon whole or 2% milk\n\n\n2 teaspoons hazelnut liqueur\n\n\n1 tablespoon cocoa\n\n\n2 tablespoons confectioners' sugar\n\n\n2  ripe bananas, sliced"}]</t>
-        </is>
-      </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "½ cup whole or 2% milk\n\n\n1 ½ tablespoons melted butter\n\n\n1  egg yolk\n\n\n1 teaspoon vanilla\n\n\n2 teaspoons hazelnut liqueur\n\n\n1 tablespoon cocoa\n\n\n2 tablespoons confectioners' sugar\n\n\n⅓ cup white flour"}, {'recipe_ingredients': "½ tablespoon butter\n\n\n1 tablespoon whole or 2% milk\n\n\n2 teaspoons hazelnut liqueur\n\n\n1 tablespoon cocoa\n\n\n2 tablespoons confectioners' sugar\n\n\n2  ripe bananas, sliced"}]</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, stir together 1/2 cup milk, 1 1/2 tablespoons melted butter, egg yolk, vanilla, and 2 teaspoons hazelnut liqueur. Whisk 1 tablespoon cocoa into liquid until completely incorporated. Next, whisk in 2 tablespoons confectioners' sugar until completely incorporated. Then gradually whisk in flour until completely incorporated. Set aside."},{"recipe_directions":"Melt 1/2 tablespoon butter in a saucepan over low heat. Stir 1 tablespoon milk and 2 teaspoons hazelnut liqueur into melted butter. Stir in 1 tablespoon cocoa and 2 tablespoons confectioners' sugar. Set over very low heat to keep warm."},{"recipe_directions":"Spray a non-stick frying pan or crepe pan with cooking spray, and heat over medium heat. Pour about 1/4 cup of batter onto the pan, and swirl to form a very thin disk; cook for about 2 minutes. Flip, and cook about 1 minute more."},{"recipe_directions":"Place crepe on a plate. Add 1/4 sliced bananas to crepe, and spoon 1/4 of the chocolate sauce over the bananas. Roll or fold crepe, and sprinkle with confectioners' sugar. Repeat steps 3 and 4. Serve crepes warm."}]</t>
         </is>
       </c>
-      <c r="L45" s="1" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M45" s="1" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"234\nCalories\n\n\n9g \nFat\n\n\n35g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699653867-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vavdzzxRFB8uAgA2awPkPnqKEUE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x999:1001x1001):format(webp)/6372725_original-2000-93e5c255b7ca4953b88451815678553a.jpg"
@@ -3438,69 +3559,65 @@
 17 Dessert Crepe Recipes</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/dessert-crepe-recipes/</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>17 Dessert Crepe Recipes</t>
         </is>
       </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="L46" s="1" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M46" s="1" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699653871-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ki-j-4G2OEnXvf9cX01r6fmKxk0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/115458-32da1f3941e548099ab2117eabfce6f2.jpg"
@@ -3513,69 +3630,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20743/claires-yummy-crepes/</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Claire's Yummy Crepes</t>
         </is>
       </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n3 \n\n\nYield:\n6 crepes"}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup all-purpose flour\n\n\n½ teaspoon white sugar\n\n\n¼ teaspoon salt\n\n\n1 cup milk\n\n\n1  egg"}]</t>
-        </is>
-      </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup all-purpose flour\n\n\n½ teaspoon white sugar\n\n\n¼ teaspoon salt\n\n\n1 cup milk\n\n\n1  egg'}]</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine flour, sugar and salt in a bowl. Make a well in the center of the flour and add the milk and egg. Beat well to combine."},{"recipe_directions":"Heat a lightly oiled griddle or frying pan over medium high heat. Pour the batter onto the griddle, using approximately 1/4 cup for each crepe. Tilt the pan with a circular motion so that the batter coats the surface evenly."},{"recipe_directions":"Cook the crepe for about 2 minutes, until the bottom is light brown. Loosen with a spatula, turn and cook the other side. Serve hot."}]</t>
         </is>
       </c>
-      <c r="L47" s="1" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M47" s="1" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"219\nCalories\n\n\n4g \nFat\n\n\n36g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699653878-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GP5xi_LKMKTj8PJs-QB3n-H3ca8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/862190-c82b504d86174204a454ceec890b5c84.jpg"
@@ -3588,69 +3701,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222367/yummy-apple-cinnamon-crepes/</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Yummy Apple Cinnamon Crepes</t>
         </is>
       </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3  eggs\n\n\n¼ teaspoon salt\n\n\n2 cups all-purpose flour\n\n\n2 cups milk\n\n\n¼ cup vegetable oil\n\n\n½ teaspoon ground cinnamon\n\n\n4  Granny Smith apples, peeled and diced\n\n\n½ cup white sugar\n\n\n2 teaspoons cinnamon\n\n\n2 tablespoons water\n\n\n2 tablespoons cornstarch\n\n\n1 tablespoon water\n\n\n1 ½ tablespoons milk\n\n\n8 teaspoons vegetable oil, divided"}]</t>
-        </is>
-      </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  eggs\n\n\n¼ teaspoon salt\n\n\n2 cups all-purpose flour\n\n\n2 cups milk\n\n\n¼ cup vegetable oil\n\n\n½ teaspoon ground cinnamon\n\n\n4  Granny Smith apples, peeled and diced\n\n\n½ cup white sugar\n\n\n2 teaspoons cinnamon\n\n\n2 tablespoons water\n\n\n2 tablespoons cornstarch\n\n\n1 tablespoon water\n\n\n1 ½ tablespoons milk\n\n\n8 teaspoons vegetable oil, divided'}]</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk eggs and salt together in a bowl. Gradually stir flour into eggs, alternately with 2 cups milk, until fully incorporated. Beat 1/4 cup vegetable oil and 1/2 teaspoon cinnamon into flour mixture. Refrigerate batter for at least 1 hour."},{"recipe_directions":"Mix apples, sugar, 2 teaspoons cinnamon, and 2 tablespoons water in a pot."},{"recipe_directions":"Whisk cornstarch and 1 tablespoon water in a small bowl; pour into apple mixture."},{"recipe_directions":"Simmer apple mixture over medium heat, stirring often, until thickened, 8 to 10 minutes. Keep warm."},{"recipe_directions":"Whisk 1 1/2 tablespoons milk into chilled batter."},{"recipe_directions":"Heat about 1 teaspoon vegetable oil in a crepe or frying pan over medium heat. Pour about 1/3 cup batter into hot oil; tip and rotate the crepe pan until batter covers the entire area. Cook until edges begin curling away from the pan's sides, about 30 seconds; flip crepe and continue cooking until bottom is lightly golden, about 30 more seconds. Remove crepe from the pan, add more oil, and repeat with remaining batter."},{"recipe_directions":"Spoon apple filling into each crepe; fold crepe over filling and serve."}]</t>
         </is>
       </c>
-      <c r="L48" s="1" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M48" s="1" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"361\nCalories\n\n\n15g \nFat\n\n\n50g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699653882-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6h_c_EFBrYrIS-KY_9jSEjSaLkw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/430161-cab3f11c3c444b9395821e3345c1175a.jpg"
@@ -3663,69 +3772,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/212825/grandma-irenas-palacsinta-hungarian-crepes/</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Grandma Irena's Palacsinta (Hungarian Crepes)</t>
         </is>
       </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n40 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 9 hrs 10 mins\n\n\nServings:\n5 \n\n\nYield:\n12 rolled pancakes"}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups all-purpose flour\n\n\n2  eggs\n\n\n1 cup milk\n\n\n1 cup soda water\n\n\n½ cup vegetable oil\n\n\n1 pinch salt"},{"ingredients":"1 cup chopped almonds\n\n\n½ cup white sugar\n\n\n¼ cup milk\n\n\n¼ teaspoon vanilla extract\n\n\n1 ½ teaspoons rum (Optional)"},{"ingredients":"¼ cup water\n\n\n½ cup white sugar\n\n\n½ cup chopped bittersweet chocolate\n\n\n2 tablespoons margarine"}]</t>
-        </is>
-      </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n2  eggs\n\n\n1 cup milk\n\n\n1 cup soda water\n\n\n½ cup vegetable oil\n\n\n1 pinch salt'}, {'recipe_ingredients': '1 cup chopped almonds\n\n\n½ cup white sugar\n\n\n¼ cup milk\n\n\n¼ teaspoon vanilla extract\n\n\n1 ½ teaspoons rum (Optional)'}, {'recipe_ingredients': '¼ cup water\n\n\n½ cup white sugar\n\n\n½ cup chopped bittersweet chocolate\n\n\n2 tablespoons margarine'}]</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine the flour and eggs and mix until smooth. Add the milk, soda water, vegetable oil, and salt and mix to combine; refrigerate the batter overnight."},{"recipe_directions":"To make the pancakes, heat a lightly greased frying pan over medium heat. Remove the batter from the refrigerator and mix well. Pour 1/4 cup of the batter into the pan and cook the pancake for about one minute. Flip it over and cook for another minute, or until golden brown. Remove the pancake from the pan and place it on waxed paper. Repeat with the remaining batter, stacking the pancakes while keeping them separate with waxed paper."},{"recipe_directions":"To make the filling, combine the chopped almonds, 1/2 cup sugar, milk, vanilla extract, and rum (if desired) in a saucepan. Cook and stir over low heat until the sugar is dissolved and the mixture is creamy. Allow it to cool slightly before filling the pancakes."},{"recipe_directions":"For the chocolate topping, combine the water, 1/2 cup sugar, and chocolate in a saucepan and cook over low heat just until the chocolate melts. Remove the pan from the heat and add the margarine, stirring until melted and combined."},{"recipe_directions":"Spread 1 heaping tablespoon of almond filling onto each pancake, rolling them up and placing them on a platter. (You will have 10 to 15 total, depending on their size.) Pour the chocolate topping over the platter of rolled pancakes. If desired, warm the platter in a microwave for about 30 seconds before serving."}]</t>
         </is>
       </c>
-      <c r="L49" s="1" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M49" s="1" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"873\nCalories\n\n\n47g \nFat\n\n\n99g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699653889-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IuZS4NljxfB9tv-jQ8_aKdBHNrE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1005390-fb82c2a949db4d739f5b09c5ac3a9e4d.jpg"
@@ -3738,69 +3843,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/212387/cottage-cheese-blintzes/</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Cottage Cheese Blintzes</t>
         </is>
       </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n15 \n\n\nYield:\n15 blintzes"}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3  eggs\n\n\n1 cup milk\n\n\n2 tablespoons vegetable oil\n\n\n¾ cup all-purpose flour\n\n\n1 teaspoon vegetable oil, or as needed"},{"ingredients":"2  (16 ounce) containers small curd cottage cheese, very well drained\n\n\n2  egg yolks\n\n\n¼ cup white sugar\n\n\n2 tablespoons lemon juice\n\n\n1 teaspoon vegetable oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  eggs\n\n\n1 cup milk\n\n\n2 tablespoons vegetable oil\n\n\n¾ cup all-purpose flour\n\n\n1 teaspoon vegetable oil, or as needed'}, {'recipe_ingredients': '2  (16 ounce) containers small curd cottage cheese, very well drained\n\n\n2  egg yolks\n\n\n¼ cup white sugar\n\n\n2 tablespoons lemon juice\n\n\n1 teaspoon vegetable oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together the eggs, milk, and 2 tablespoons of vegetable oil in a bowl; gradually add in the flour, whisking to remove all lumps."},{"recipe_directions":"Brush a small skillet with 1 teaspoon vegetable oil, and heat over medium-high heat. Pour about 2 tablespoons of batter per crepe into the heated skillet, and tilt the pan to completely cover the surface with batter. Crepes should be about 5 inches in diameter. Cook the crepes until golden on the bottom, and set but not wet on top, 1 to 2 minutes per crepe. Don't flip the crepes. Set the cooked crepes aside."},{"recipe_directions":"Mix the cottage cheese, egg yolks, sugar, and lemon juice in a bowl until very well combined. To fill, place a crepe in front of you on a work surface with the cooked side up, and place about 1/4 cup of cheese filling in the center of the crepe. Fold the right and left edges of the crepe over the filling, and roll the crepe over to seal the filling in, making a compact little roll filled with cheese. Set the blintzes aside."},{"recipe_directions":"Heat 1 teaspoon of vegetable oil in a large skillet over medium-low heat, and place the filled blintzes into the hot skillet. Pan-fry the blintzes until golden brown on each side, about 2 minutes per side. Eat hot or cold."}]</t>
         </is>
       </c>
-      <c r="L50" s="1" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M50" s="1" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"149\nCalories\n\n\n7g \nFat\n\n\n11g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699653893-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TXsTDYeLhNoqVnlW_SGuyk53ROk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(219x474:221x476):format(webp)/1993443-palacinky-Baking-Nana-4x3-1-edcb63649f404796861725d9c38133a0.jpg"
@@ -3814,69 +3915,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236965/palacinky/</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Palacinky</t>
         </is>
       </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups skim milk\n\n\n6  eggs, beaten\n\n\n1 cup all-purpose flour\n\n\n¼ cup white sugar\n\n\n1 teaspoon vanilla extract\n\n\n¼ cup canola oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups skim milk\n\n\n6  eggs, beaten\n\n\n1 cup all-purpose flour\n\n\n¼ cup white sugar\n\n\n1 teaspoon vanilla extract\n\n\n¼ cup canola oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat milk, eggs, flour, sugar, and vanilla extract together in a large mixing bowl until the batter is thin and without lumps."},{"recipe_directions":"Heat a large skillet over medium heat and grease with 1 tablespoon canola oil. Ladle enough batter into the skillet to cover the cooking surface in a thin layer. Cook until bubbles appear on the surface, 2 to 3 minutes. Flip with a large turner and cook until browned on the other side, about 2 minutes more."},{"recipe_directions":"Remove cooked pancake to a plate and roll into a log. Repeat to cook remaining pancakes, greasing the skillet as needed."}]</t>
         </is>
       </c>
-      <c r="L51" s="1" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M51" s="1" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"331\nCalories\n\n\n14g \nFat\n\n\n43g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699653897-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/l1XMoirq_aJSHDe4AOnV05dAbD8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1118972-e6683cc557294093b69d16842a1ac4f5.jpg"
@@ -3889,69 +3986,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/141970/egg-white-crepes/</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Egg-White Crepes</t>
         </is>
       </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n4 crepes"}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ cup whole wheat flour\n\n\n2  egg whites\n\n\n½ cup skim milk\n\n\n1 pinch salt\n\n\n1 tablespoon vegetable oil\n\n\n½ cup mixed frozen berries, thawed and drained\n\n\n1 tablespoon confectioners' sugar for dusting"}]</t>
-        </is>
-      </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "½ cup whole wheat flour\n\n\n2  egg whites\n\n\n½ cup skim milk\n\n\n1 pinch salt\n\n\n1 tablespoon vegetable oil\n\n\n½ cup mixed frozen berries, thawed and drained\n\n\n1 tablespoon confectioners' sugar for dusting"}]</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together the wheat flour, egg whites, milk, salt, and oil in a large bowl until smooth."},{"recipe_directions":"Lightly coat a skillet with cooking spray and place over medium heat. Pour 1/4 cup of the batter into the skillet. Tilt the pan in a circular motion to allow the batter to spread to the edges. Cook until the bottom is light brown, about 2 minutes. Flip the crepe and place 2 tablespoons of the mixed berries in the center of the crepe; cook another 2 minutes. Fold the crepe in half and remove with a spatula to a serving plate. Dust with confectioners' sugar and serve."}]</t>
         </is>
       </c>
-      <c r="L52" s="1" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M52" s="1" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"228\nCalories\n\n\n8g \nFat\n\n\n33g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699653901-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TxuSCvXhFMHR7qPrBZ1OGAcmSes=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/9173-c34ffaa748d64b5c81b66e121d65f758.jpg"
@@ -3964,69 +4057,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16203/regular-crepes/</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Regular Crêpes</t>
         </is>
       </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups all-purpose flour\n\n\n1 tablespoon white sugar\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n2 cups milk\n\n\n2 tablespoons butter, melted\n\n\n½ teaspoon vanilla extract\n\n\n2 large eggs"}]</t>
-        </is>
-      </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups all-purpose flour\n\n\n1 tablespoon white sugar\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n2 cups milk\n\n\n2 tablespoons butter, melted\n\n\n½ teaspoon vanilla extract\n\n\n2 large eggs'}]</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Sift together flour, sugar, baking powder, and salt in a large bowl. Stir in milk, butter, and vanilla. Add in eggs and mix until smooth."},{"recipe_directions":"Heat a lightly oiled griddle or frying pan over medium-high heat. Pour or scoop the batter onto the griddle, using approximately 1/4 cup for each crêpe. Tilt the pan with a circular motion so that the batter coats the surface evenly."},{"recipe_directions":"Cook the crêpe for about 2 minutes, until the bottom is light brown. Loosen with a spatula, turn and cook the other side."},{"recipe_directions":"Stack the finished crêpes by putting wax paper between each one. Keep covered with a dry cloth until ready to eat."}]</t>
         </is>
       </c>
-      <c r="L53" s="1" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M53" s="1" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"111\nCalories\n\n\n4g \nFat\n\n\n15g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699653906-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PuE9yE8iWG7DKu13sU8mMv0KX6M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2140729-7eb24114e28c4a3084d123177f025a3a.jpg"
@@ -4039,69 +4128,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16054/chocolate-crepes/</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Chocolate Crepes</t>
         </is>
       </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n1 mins\n\n\nTotal Time:\n1 mins\n\n\nServings:\n15 \n\n\nYield:\n15 servings"}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2  eggs\n\n\n½ cup milk\n\n\n½ cup water\n\n\n¾ cup all-purpose flour\n\n\n6 teaspoons white sugar\n\n\n⅓ tablespoon butter or margarine\n\n\n1 fluid ounce cognac\n\n\n1 (3.9 ounce) package instant chocolate pudding mix\n\n\n1 teaspoon instant coffee granules\n\n\n3 cups heavy cream\n\n\n4 (1 ounce) squares bittersweet chocolate\n\n\n½ cup butter or margarine\n\n\n1 ¼ cups nonfat evaporated milk\n\n\n2 ½ cups confectioners' sugar"}]</t>
-        </is>
-      </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "2  eggs\n\n\n½ cup milk\n\n\n½ cup water\n\n\n¾ cup all-purpose flour\n\n\n6 teaspoons white sugar\n\n\n⅓ tablespoon butter or margarine\n\n\n1 fluid ounce cognac\n\n\n1 (3.9 ounce) package instant chocolate pudding mix\n\n\n1 teaspoon instant coffee granules\n\n\n3 cups heavy cream\n\n\n4 (1 ounce) squares bittersweet chocolate\n\n\n½ cup butter or margarine\n\n\n1 ¼ cups nonfat evaporated milk\n\n\n2 ½ cups confectioners' sugar"}]</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Crepe batter: in a large bowl, mix together eggs, milk, water, flour, sugar, 1 teaspoon butter, and cognac."},{"recipe_directions":"Filling: beat pudding mix, instant coffee and whipping cream together with an electric mixer until the mixture is thick."},{"recipe_directions":"Sauce: in a small saucepan, melt the chocolate, butter, evaporated milk, and confectioners' sugar together until the mixture is a little thick."},{"recipe_directions":"Crepes: heat a small skillet (or crepe pan) to a high temperature. Place a small amount of batter into the skillet and swirl it around until the batter covers the bottom of the pan. When the crepe is slightly browned flip the crepe over and let the other side brown for a few seconds. The first crepe will most likely not turn out well, but the rest will. Stack the crepes on top of each other to let tem cool before filling."},{"recipe_directions":"Spoon the filling into the center of each crepe and roll the crepe up around it. Spoon the sauce over the crepes and serve."}]</t>
         </is>
       </c>
-      <c r="L54" s="1" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M54" s="1" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"434\nCalories\n\n\n28g \nFat\n\n\n41g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699653910-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8REZbZR7b4o12mHv9pPcjVdN3io=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(515x539:517x541):format(webp)/6634962-fluffy-swedish-pancakes-Smitty21-4x3-1-1624fbf1ff5943129ff34f9ddd1720fd.jpg"
@@ -4115,69 +4200,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220142/fluffy-swedish-pancakes/</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Fluffy Swedish Pancakes</t>
         </is>
       </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4 \n\n\nYield:\n8 crepes"}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"4  eggs\n\n\n1 cup milk\n\n\n½ cup warm water\n\n\n3 tablespoons white sugar\n\n\n1 cup all-purpose flour\n\n\n½ teaspoon salt\n\n\n½ cup butter, melted\n\n\n1 tablespoon butter, melted, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  eggs\n\n\n1 cup milk\n\n\n½ cup warm water\n\n\n3 tablespoons white sugar\n\n\n1 cup all-purpose flour\n\n\n½ teaspoon salt\n\n\n½ cup butter, melted\n\n\n1 tablespoon butter, melted, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend eggs, milk, warm water, white sugar, flour, and salt together in a large mixing bowl with an electric mixer until well combined into a smooth batter."},{"recipe_directions":"Stream the melted butter into the batter while continuing to beat."},{"recipe_directions":"Heat a skillet or crepe pan over medium heat. Coat the cooking surface with a thin layer of butter."},{"recipe_directions":"Pour a thin layer of batter onto the prepared cooking surface; swirl the pan to assure even coverage."},{"recipe_directions":"Cook the crepe until browned on the bottom, 1 to 2 minutes; flip the crepe and continue cooking until the other side is browned. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="L55" s="1" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M55" s="1" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"481\nCalories\n\n\n32g \nFat\n\n\n37g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699653913-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ekO6L_xp0xTxEL6Sj2zMPV9q55c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5441-68015bddec6b442fbc108560e4839559.jpg"
@@ -4190,69 +4271,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25216/banana-crepes/</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Banana Crepes</t>
         </is>
       </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup all-purpose flour\n\n\n¼ cup confectioners' sugar\n\n\n2  eggs\n\n\n1 cup milk\n\n\n3 tablespoons butter, melted\n\n\n1 teaspoon vanilla extract\n\n\n¼ teaspoon salt\n\n\n¼ cup butter\n\n\n¼ cup packed brown sugar\n\n\n¼ teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n¼ cup half-and-half cream\n\n\n6  bananas, halved lengthwise\n\n\n1 ½ cups whipped heavy cream\n\n\n1 pinch ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 cup all-purpose flour\n\n\n¼ cup confectioners' sugar\n\n\n2  eggs\n\n\n1 cup milk\n\n\n3 tablespoons butter, melted\n\n\n1 teaspoon vanilla extract\n\n\n¼ teaspoon salt\n\n\n¼ cup butter\n\n\n¼ cup packed brown sugar\n\n\n¼ teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n¼ cup half-and-half cream\n\n\n6  bananas, halved lengthwise\n\n\n1 ½ cups whipped heavy cream\n\n\n1 pinch ground cinnamon"}]</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Sift flour and powdered sugar into a mixing bowl. Add eggs, milk, butter, vanilla, and salt; beat until smooth."},{"recipe_directions":"Heat a lightly greased 6 inch skillet. Add about 3 tablespoons batter. Tilt skillet so that batter spreads to almost cover the bottom of skillet. Cook until lightly browned; turn and brown the other side. Repeat process with remaining batter, grease skillet as needed."},{"recipe_directions":"Melt 1/4 cup butter in a large skillet. Stir in brown sugar, 1/4 teaspoon cinnamon and nutmeg. Stir in cream and cook until slightly thickened. Add half the bananas at a time to skillet; cook for 2 to 3 minutes, spooning sauce over them. Remove from heat."},{"recipe_directions":"Roll a crepe around each banana half and place on serving platter. Spoon sauce over crepes. Top with whipped cream and a pinch of cinnamon."}]</t>
         </is>
       </c>
-      <c r="L56" s="1" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M56" s="1" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"519\nCalories\n\n\n29g \nFat\n\n\n61g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699653918-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0WqWLM8APmOTfN_jjxsOYXcxvBs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2208x0:2210x2):format(webp)/7725296-769b709502654d0c803bc2a1d6718fc0.jpg"
@@ -4265,69 +4342,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273285/chef-johns-strawberry-crepe-cake/</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Chef John's Strawberry Crepe Cake</t>
         </is>
       </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n45 mins\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n12 \n\n\nYield:\n1 20-layer crepe cake"}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"5 large eggs\n\n\n2 ½ cups all-purpose flour\n\n\n2 tablespoons white sugar\n\n\n½ teaspoon kosher salt\n\n\n2 ½ tablespoons vegetable oil\n\n\n3 ¼ cups whole milk\n\n\n½ teaspoon vanilla extract\n\n\n4 tablespoons butter, or as needed"},{"ingredients":"1 (10 ounce) jar strawberry jam\n\n\n2 tablespoons water"},{"ingredients":"¾ cup mascarpone cheese\n\n\n1 ½ cups heavy cream\n\n\n3 tablespoons white sugar\n\n\n½ teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 large eggs\n\n\n2 ½ cups all-purpose flour\n\n\n2 tablespoons white sugar\n\n\n½ teaspoon kosher salt\n\n\n2 ½ tablespoons vegetable oil\n\n\n3 ¼ cups whole milk\n\n\n½ teaspoon vanilla extract\n\n\n4 tablespoons butter, or as needed'}, {'recipe_ingredients': '1 (10 ounce) jar strawberry jam\n\n\n2 tablespoons water'}, {'recipe_ingredients': '¾ cup mascarpone cheese\n\n\n1 ½ cups heavy cream\n\n\n3 tablespoons white sugar\n\n\n½ teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour eggs, flour, sugar, salt, oil, milk, and vanilla extract into a blender. Blend, starting on low speed and finishing on high, until combined. Refrigerate batter for at least 30 minutes."},{"recipe_directions":"Scoop strawberry jam into a saucepan. Rinse out jar with water and pour into the saucepan. Bring to a simmer over medium heat and stir. Simmer for 1 minute, remove from heat, and stir. Let cool to room temperature."},{"recipe_directions":"Brush some butter over a nonstick skillet over medium heat. Pour in 1/4 cup batter; tilt pan to coat evenly. Cook until crepes bubble and brown, about 1 1/2 minutes per side. Transfer to a baking sheet. Repeat with remaining batter, buttering the pan between crepes. Let cool completely before stacking, at least 15 minutes."},{"recipe_directions":"Combine mascarpone cheese, cream, sugar, and vanilla extract in a bowl. Whisk together until stiff peaks form."},{"recipe_directions":"Lay a crepe onto a large plate. Spoon on 2 or 3 tablespoons of the cream mixture, spreading it almost to the edge. Swirl in some strawberry jam. Transfer finished crepe onto a flat serving plate. Repeat with remaining crepes, cream, and jam. Center each crepe over the previous one in a stack. Gently press on a final plain crepe to finish."},{"recipe_directions":"Refrigerate until completely chilled before cutting and serving."}]</t>
         </is>
       </c>
-      <c r="L57" s="1" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M57" s="1" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"466\nCalories\n\n\n29g \nFat\n\n\n45g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699653923-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AfI3ghlQWgBh8uGjKdNQWhjZuP0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3565437-25199dad8ab5414097a41a1131202504.jpg"
@@ -4340,69 +4413,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18100/eggless-crepes/</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Eggless Crêpes</t>
         </is>
       </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n4 \n\n\nYield:\n16 6-inch crêpes"}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"⅔ cup water\n\n\n½ cup skim milk\n\n\n¼ cup butter, melted\n\n\n2 tablespoons vanilla extract\n\n\n1 cup all-purpose flour\n\n\n1 tablespoon white sugar\n\n\n¼ teaspoon salt\n\n\n1 tablespoon vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅔ cup water\n\n\n½ cup skim milk\n\n\n¼ cup butter, melted\n\n\n2 tablespoons vanilla extract\n\n\n1 cup all-purpose flour\n\n\n1 tablespoon white sugar\n\n\n¼ teaspoon salt\n\n\n1 tablespoon vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix water, milk, melted butter, and vanilla together in a medium bowl. Mix flour, sugar, and salt together in a small bowl until thoroughly combined. Whisk flour mixture into milk mixture until smooth. Cover batter and refrigerate for 2 hours."},{"recipe_directions":"Warm a medium skillet over medium-high heat. Coat the pan with vegetable oil, then pour in about 2 tablespoons batter. Swirl the pan to allow batter to spread out thinly. Cook until the edges are crispy and golden, then flip to cook the other side until lightly browned. Remove to a plate and repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="L58" s="1" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M58" s="1" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"287\nCalories\n\n\n15g \nFat\n\n\n29g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699653932-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5nVGoMU7Tgrh-vsbMhhQWnSGtdI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/667046-197363bc6a2141dba6dd9e3fcc6a687e.jpg"
@@ -4415,69 +4484,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/95817/vanilla-crepes/</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Vanilla Crepes</t>
         </is>
       </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n12 \n\n\nYield:\n12 crepes"}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups milk\n\n\n3  egg yolks\n\n\n2 tablespoons vanilla extract\n\n\n1 ½ cups all-purpose flour\n\n\n2 tablespoons sugar\n\n\n½ teaspoon salt\n\n\n5 tablespoons melted butter"}]</t>
-        </is>
-      </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups milk\n\n\n3  egg yolks\n\n\n2 tablespoons vanilla extract\n\n\n1 ½ cups all-purpose flour\n\n\n2 tablespoons sugar\n\n\n½ teaspoon salt\n\n\n5 tablespoons melted butter'}]</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, mix together the milk, egg yolks and vanilla. Stir in the flour, sugar, salt and melted butter until well blended."},{"recipe_directions":"Heat a crepe pan over medium heat until hot. Coat with vegetable oil or cooking spray. Pour about 1/4 cup of batter into the pan and tip to spread the batter to the edges. When bubbles form on the top and the edges are dry, flip over and cook until lightly browned on the other side and edges are golden. Repeat with remaining batter."},{"recipe_directions":"Fill crepes with your favorite fruit, cream, caramel or even ice cream or cheese to serve."}]</t>
         </is>
       </c>
-      <c r="L59" s="1" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M59" s="1" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"142\nCalories\n\n\n7g \nFat\n\n\n16g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699653937-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/usjyhOqAN1VIKcdMV_KwIjEEd9o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4023492-blintz-souffle-ii-Kari-4x3-1-025b835492bc40a583057b32b87f4d16.jpg"
@@ -4491,69 +4556,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/212822/blintz-souffle-ii/</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Blintz Souffle II</t>
         </is>
       </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3 tablespoons butter\n\n\n2 (13 ounce) packages frozen cheese-filled blintzes\n\n\n4  eggs, beaten\n\n\n1 ½ cups sour cream\n\n\n1 ¼ cups white sugar\n\n\n½ teaspoon salt\n\n\n1 teaspoon vanilla extract\n\n\n1 tablespoon orange juice"}]</t>
-        </is>
-      </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons butter\n\n\n2 (13 ounce) packages frozen cheese-filled blintzes\n\n\n4  eggs, beaten\n\n\n1 ½ cups sour cream\n\n\n1 ¼ cups white sugar\n\n\n½ teaspoon salt\n\n\n1 teaspoon vanilla extract\n\n\n1 tablespoon orange juice'}]</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Melt the butter in a 2-quart casserole, and place the frozen blintzes on top of the butter in a single layer. Mix the eggs, sour cream, sugar, salt, vanilla extract, and orange juice in a bowl until thoroughly combined, and pour the mixture over the blintzes."},{"recipe_directions":"Bake in the preheated oven until the top is lightly browned, and a toothpick inserted into the center of the casserole comes out clean, about 45 minutes."}]</t>
         </is>
       </c>
-      <c r="L60" s="1" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="M60" s="1" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"410\nCalories\n\n\n19g \nFat\n\n\n53g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699653941-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/80zv32RDOMd44mopFz1yvRhIirU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2243167-18cdd4c8013d4356ad4ee7f104bb8871.jpg"
@@ -4566,69 +4627,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/15417/vegan-crepes/</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Vegan Crêpes</t>
         </is>
       </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup unbleached all-purpose flour\n\n\n½ cup soy milk\n\n\n½ cup water\n\n\n¼ cup melted soy margarine\n\n\n2 tablespoons maple syrup\n\n\n1 tablespoon turbinado sugar\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup unbleached all-purpose flour\n\n\n½ cup soy milk\n\n\n½ cup water\n\n\n¼ cup melted soy margarine\n\n\n2 tablespoons maple syrup\n\n\n1 tablespoon turbinado sugar\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix flour, soy milk, water, 1/4 cup soy margarine, maple syrup, sugar, and salt together in a large mixing bowl until combined; cover and chill for 2 hours."},{"recipe_directions":"Lightly grease a 6-inch skillet with some soy margarine. Heat the skillet over medium heat."},{"recipe_directions":"Pour 2 to 3 tablespoons of batter into the skillet and immediately rotate the skillet to spread batter out in a thin layer. Cook until the top of the crêpe is no longer wet and the bottom has turned light brown, 1 to 2 minutes. Run a spatula around the edge of the skillet to loosen crêpe; flip and cook until the other side has turned light brown, about 1 minute more. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="L61" s="1" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M61" s="1" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"268\nCalories\n\n\n12g \nFat\n\n\n36g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699653946-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/c0kCsEQA5nne0zx47OcWfWlOKyQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2354304-f94790a732be4666b38bd6c048eeb226.jpg"
@@ -4641,69 +4698,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17571/real-french-crepes/</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Real French Crepes</t>
         </is>
       </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n2 mins\n\n\nCook Time:\n13 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n7 \n\n\nYield:\n7 crepes"}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup all-purpose flour\n\n\n1  egg\n\n\n2 cups milk"}]</t>
-        </is>
-      </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup all-purpose flour\n\n\n1  egg\n\n\n2 cups milk'}]</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a mixing bowl, combine flour, egg, and milk."},{"recipe_directions":"Heat a large skillet or crepe pan over a medium-high heat. Spray the pan with non-stick cooking spray. Pour about 1/3 cup of batter into the pan, lift the pan and turn it by rotating your wrist, spreading a PAPER THIN amount in the pan. Flip the crepe when it starts to bubble. When it is finished cooking, remove it and repeat this process with the remaining batter."}]</t>
         </is>
       </c>
-      <c r="L62" s="1" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M62" s="1" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"110\nCalories\n\n\n2g \nFat\n\n\n17g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="1" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>1699653950-62</t>
         </is>
       </c>
-      <c r="B63" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D63" s="1" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E63" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F63" s="1" t="inlineStr">
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ydOyOUCP8O4sIvZrnaiYloc7wqI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/8909901-crepes-Ana-P-1x1-1-4b76780e393548baa72d98254b851aed.jpg"
@@ -4717,69 +4770,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G63" s="1" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/27188/crepes/</t>
         </is>
       </c>
-      <c r="H63" s="1" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Crêpes</t>
         </is>
       </c>
-      <c r="I63" s="1" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 crêpes"}]</t>
         </is>
       </c>
-      <c r="J63" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup milk\n\n\n⅔ cup all-purpose flour\n\n\n2 large eggs\n\n\n2 ½ teaspoons vegetable oil, divided\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="K63" s="1" t="inlineStr">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup milk\n\n\n⅔ cup all-purpose flour\n\n\n2 large eggs\n\n\n2 ½ teaspoons vegetable oil, divided\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine milk, flour, eggs, 1 1/2 teaspoons oil, and salt in a blender; process until smooth. Cover and refrigerate for 1 hour."},{"recipe_directions":"Heat a skillet over medium-high heat and brush with remaining oil. Pour 1/8 of the crêpe batter (about 1/4 cup) into the pan; tilt the pan until batter coats the entire surface. Cook until golden brown, 1 to 2 minutes per side, then remove to a plate. Repeat to cook remaining crêpes."}]</t>
         </is>
       </c>
-      <c r="L63" s="1" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M63" s="1" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"79\nCalories\n\n\n3g \nFat\n\n\n10g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="1" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>1699653955-63</t>
         </is>
       </c>
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
-        </is>
-      </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/147/breakfast-and-brunch/crepes/</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>Sweet Crepes</t>
         </is>
       </c>
-      <c r="D64" s="1" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16142/breakfast-and-brunch/crepes/sweet/</t>
         </is>
       </c>
-      <c r="E64" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F64" s="1" t="inlineStr">
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zbgJcxjC342zokHb2ENaSYlaZpM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/7725389-creamy-strawberry-crepes-Christine-Johanson-1x1-1-775b425615bd408698fc3688b35ddf12.jpg"
@@ -4793,42 +4842,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G64" s="1" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/143886/creamy-strawberry-crepes/</t>
         </is>
       </c>
-      <c r="H64" s="1" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Creamy Strawberry Crepes</t>
         </is>
       </c>
-      <c r="I64" s="1" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6 \n\n\nYield:\n12 filled crepes"}]</t>
         </is>
       </c>
-      <c r="J64" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¾ cup all-purpose flour\n\n\n½ cup milk\n\n\n½ cup water\n\n\n3  eggs\n\n\n3 tablespoons butter, melted\n\n\n½ teaspoon salt\n\n\n1 ¼ cups sifted confectioners' sugar\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon lemon zest\n\n\n½ teaspoon vanilla extract\n\n\n1 cup heavy cream, whipped\n\n\n4 cups sliced strawberries"}]</t>
-        </is>
-      </c>
-      <c r="K64" s="1" t="inlineStr">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "¾ cup all-purpose flour\n\n\n½ cup milk\n\n\n½ cup water\n\n\n3  eggs\n\n\n3 tablespoons butter, melted\n\n\n½ teaspoon salt\n\n\n1 ¼ cups sifted confectioners' sugar\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon lemon zest\n\n\n½ teaspoon vanilla extract\n\n\n1 cup heavy cream, whipped\n\n\n4 cups sliced strawberries"}]</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place flour, milk, water, eggs, melted butter, and salt into a blender; blend until smooth and set aside."},{"recipe_directions":"Beat confectioners' sugar, cream cheese, lemon juice, lemon zest, and vanilla with an electric mixer in a large bowl until smooth. Gently fold in whipped cream."},{"recipe_directions":"Heat a lightly oiled griddle or non-stick skillet over medium heat."},{"recipe_directions":"Pour or scoop batter onto the griddle, using approximately 2 tablespoons for each crepe. Tip and rotate the pan to spread batter as thinly as possible. Flip over when batter is set and edges begin to brown. Continue cooking until bottom begins to brown. Stack finished crepes on a plate; cover with a damp towel."},{"recipe_directions":"Fill each crepe with 1/4 cup sliced strawberries and 1/3 cup cream cheese filling. Roll up and top with a dollop of cream cheese filling and more sliced strawberries."}]</t>
         </is>
       </c>
-      <c r="L64" s="1" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"},{"recipe_tags":"Sweet"}]</t>
         </is>
       </c>
-      <c r="M64" s="1" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"557\nCalories\n\n\n37g \nFat\n\n\n49g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>